--- a/capiq_data/in_process_data/IQ248356.xlsx
+++ b/capiq_data/in_process_data/IQ248356.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07287C-6C70-4888-88FD-B1CDCA734499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499FB9F6-99ED-47E7-80B6-6C0C3EA383E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"6e6d2d76-87c4-41b4-a48e-231eabc384a9"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"ecf7f7ef-dda9-475b-93a3-2ec56223d6c8"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>268.60000000000002</v>
+        <v>135.6</v>
       </c>
       <c r="D2">
-        <v>2292.5</v>
+        <v>1475.8</v>
       </c>
       <c r="E2">
-        <v>1639.4</v>
+        <v>1159.4000000000001</v>
       </c>
       <c r="F2">
-        <v>622.9</v>
+        <v>416.2</v>
       </c>
       <c r="G2">
-        <v>2870.2</v>
+        <v>1832.7</v>
       </c>
       <c r="H2">
-        <v>13459.7</v>
+        <v>8301.2999999999993</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>581.4</v>
       </c>
       <c r="J2">
-        <v>3619.5</v>
+        <v>2655.3</v>
       </c>
       <c r="K2">
-        <v>320.89999999999998</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-103.9</v>
       </c>
       <c r="M2">
-        <v>-170.9</v>
+        <v>-26</v>
       </c>
       <c r="N2">
-        <v>1937.1</v>
+        <v>1285.4000000000001</v>
       </c>
       <c r="O2">
-        <v>7433.9</v>
+        <v>5274.9</v>
       </c>
       <c r="P2">
-        <v>3994.8</v>
+        <v>2963.8</v>
       </c>
       <c r="Q2">
-        <v>-127.1</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6025.8</v>
+        <v>3026.4</v>
       </c>
       <c r="U2">
-        <v>247.2</v>
+        <v>85.3</v>
       </c>
       <c r="V2">
-        <v>336.6</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="W2">
-        <v>-104.8</v>
+        <v>-40.700000000000003</v>
       </c>
       <c r="X2">
-        <v>-190.6</v>
+        <v>-161.6</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="AA2">
-        <v>268.60000000000002</v>
+        <v>135.6</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>94.6</v>
       </c>
       <c r="D3">
-        <v>2403</v>
+        <v>1534.5</v>
       </c>
       <c r="E3">
-        <v>1729.1</v>
+        <v>1158.3</v>
       </c>
       <c r="F3">
-        <v>654.79999999999995</v>
+        <v>407.9</v>
       </c>
       <c r="G3">
-        <v>2976.5</v>
+        <v>1904.9</v>
       </c>
       <c r="H3">
-        <v>13820.7</v>
+        <v>8284.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="J3">
-        <v>3714.7</v>
+        <v>2515.6</v>
       </c>
       <c r="K3">
-        <v>662.1</v>
+        <v>209.1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2211.3000000000002</v>
+        <v>1441.8</v>
       </c>
       <c r="O3">
-        <v>7770.1</v>
+        <v>5277.3</v>
       </c>
       <c r="P3">
-        <v>4399.7</v>
+        <v>3026.7</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6050.6</v>
+        <v>3007.2</v>
       </c>
       <c r="U3">
-        <v>270.3</v>
+        <v>100.6</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-9.6</v>
       </c>
       <c r="AA3">
-        <v>304.3</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>326.5</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="D4">
-        <v>2472</v>
+        <v>1450.9</v>
       </c>
       <c r="E4">
-        <v>1795.1</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="F4">
-        <v>646.29999999999995</v>
+        <v>411.6</v>
       </c>
       <c r="G4">
-        <v>3276.5</v>
+        <v>1780.1</v>
       </c>
       <c r="H4">
-        <v>14451.5</v>
+        <v>8218.7999999999993</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>533.5</v>
       </c>
       <c r="J4">
-        <v>4057.4</v>
+        <v>2542.6</v>
       </c>
       <c r="K4">
-        <v>430.4</v>
+        <v>85.9</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2103.8000000000002</v>
+        <v>1195.9000000000001</v>
       </c>
       <c r="O4">
-        <v>8003.7</v>
+        <v>5081.8</v>
       </c>
       <c r="P4">
-        <v>4500.8</v>
+        <v>2914.9</v>
       </c>
       <c r="Q4">
-        <v>159.80000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6447.8</v>
+        <v>3137</v>
       </c>
       <c r="U4">
-        <v>430.1</v>
+        <v>116.1</v>
       </c>
       <c r="V4">
-        <v>502</v>
+        <v>308.5</v>
       </c>
       <c r="W4">
-        <v>-122.9</v>
+        <v>-40.700000000000003</v>
       </c>
       <c r="X4">
-        <v>23.5</v>
+        <v>-101.4</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-21.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AA4">
-        <v>326.5</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>324.8</v>
+        <v>103.1</v>
       </c>
       <c r="D5">
-        <v>2506.1999999999998</v>
+        <v>1396.6</v>
       </c>
       <c r="E5">
-        <v>1555.4</v>
+        <v>981.3</v>
       </c>
       <c r="F5">
-        <v>651.4</v>
+        <v>415.7</v>
       </c>
       <c r="G5">
-        <v>3189.8</v>
+        <v>1684.8</v>
       </c>
       <c r="H5">
-        <v>14290.7</v>
+        <v>8084.1</v>
       </c>
       <c r="I5">
-        <v>793.6</v>
+        <v>408.1</v>
       </c>
       <c r="J5">
-        <v>3924.4</v>
+        <v>2027.5</v>
       </c>
       <c r="K5">
-        <v>561.79999999999995</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2342</v>
+        <v>1352.4</v>
       </c>
       <c r="O5">
-        <v>8352</v>
+        <v>4860.3</v>
       </c>
       <c r="P5">
-        <v>4567.5</v>
+        <v>2514.9</v>
       </c>
       <c r="Q5">
-        <v>-7.6</v>
+        <v>-49.9</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>18500</v>
+        <v>17800</v>
       </c>
       <c r="T5">
-        <v>5938.7</v>
+        <v>3223.8</v>
       </c>
       <c r="U5">
-        <v>421.4</v>
+        <v>66.2</v>
       </c>
       <c r="V5">
-        <v>624.5</v>
+        <v>395.6</v>
       </c>
       <c r="W5">
-        <v>-123.7</v>
+        <v>-43</v>
       </c>
       <c r="X5">
-        <v>-252.1</v>
+        <v>-634.29999999999995</v>
       </c>
       <c r="Y5">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.2</v>
+        <v>-10.5</v>
       </c>
       <c r="AA5">
-        <v>324.8</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>248.1</v>
+        <v>113.7</v>
       </c>
       <c r="D6">
-        <v>2321.5</v>
+        <v>1316.5</v>
       </c>
       <c r="E6">
-        <v>1685.4</v>
+        <v>948.7</v>
       </c>
       <c r="F6">
-        <v>599.20000000000005</v>
+        <v>379.4</v>
       </c>
       <c r="G6">
-        <v>3176.2</v>
+        <v>1628.6</v>
       </c>
       <c r="H6">
-        <v>14391.3</v>
+        <v>8038.9</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>463.6</v>
       </c>
       <c r="J6">
-        <v>3886</v>
+        <v>1989.5</v>
       </c>
       <c r="K6">
-        <v>267.89999999999998</v>
+        <v>249.9</v>
       </c>
       <c r="L6">
-        <v>-316.39999999999998</v>
+        <v>-3.4</v>
       </c>
       <c r="M6">
-        <v>-3.3</v>
+        <v>-47.3</v>
       </c>
       <c r="N6">
-        <v>2337.1999999999998</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="O6">
-        <v>8334.2000000000007</v>
+        <v>4747.3999999999996</v>
       </c>
       <c r="P6">
-        <v>4618.7</v>
+        <v>2404.6</v>
       </c>
       <c r="Q6">
-        <v>-15.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6057.1</v>
+        <v>3291.5</v>
       </c>
       <c r="U6">
-        <v>407.3</v>
+        <v>68.3</v>
       </c>
       <c r="V6">
-        <v>430.7</v>
+        <v>273.8</v>
       </c>
       <c r="W6">
-        <v>-121.9</v>
+        <v>-43.1</v>
       </c>
       <c r="X6">
-        <v>-88.3</v>
+        <v>-78</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-21.2</v>
+        <v>-20.9</v>
       </c>
       <c r="AA6">
-        <v>248.1</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>296</v>
+        <v>126.1</v>
       </c>
       <c r="D7">
-        <v>2344.3000000000002</v>
+        <v>1312.7</v>
       </c>
       <c r="E7">
-        <v>1531.6</v>
+        <v>962.5</v>
       </c>
       <c r="F7">
-        <v>628.5</v>
+        <v>383.8</v>
       </c>
       <c r="G7">
-        <v>3342.9</v>
+        <v>1631.3</v>
       </c>
       <c r="H7">
-        <v>14955.8</v>
+        <v>7870.8</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>460.3</v>
       </c>
       <c r="J7">
-        <v>3882.7</v>
+        <v>1968.9</v>
       </c>
       <c r="K7">
-        <v>353</v>
+        <v>46.6</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2539.4</v>
+        <v>974.3</v>
       </c>
       <c r="O7">
-        <v>8548.4</v>
+        <v>4453.2</v>
       </c>
       <c r="P7">
-        <v>4743.7</v>
+        <v>2082.4</v>
       </c>
       <c r="Q7">
-        <v>-74.3</v>
+        <v>29.5</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>6407.4</v>
+        <v>3417.6</v>
       </c>
       <c r="U7">
-        <v>319.5</v>
+        <v>97.8</v>
       </c>
       <c r="V7">
-        <v>320.5</v>
+        <v>203.3</v>
       </c>
       <c r="W7">
-        <v>-122.2</v>
+        <v>-43.1</v>
       </c>
       <c r="X7">
-        <v>15.2</v>
+        <v>-281.89999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-13.8</v>
       </c>
       <c r="AA7">
-        <v>296</v>
+        <v>126.1</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>484.5</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="D8">
-        <v>2340.1</v>
+        <v>1374</v>
       </c>
       <c r="E8">
-        <v>1581.2</v>
+        <v>1018.1</v>
       </c>
       <c r="F8">
-        <v>649.29999999999995</v>
+        <v>397.3</v>
       </c>
       <c r="G8">
-        <v>3033.1</v>
+        <v>1781</v>
       </c>
       <c r="H8">
-        <v>14880.9</v>
+        <v>8236.5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>486.7</v>
       </c>
       <c r="J8">
-        <v>3797.8</v>
+        <v>2007.4</v>
       </c>
       <c r="K8">
-        <v>370.7</v>
+        <v>33.4</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2135.4</v>
+        <v>1110.5</v>
       </c>
       <c r="O8">
-        <v>8233.5</v>
+        <v>4586.3</v>
       </c>
       <c r="P8">
-        <v>4231</v>
+        <v>2214</v>
       </c>
       <c r="Q8">
-        <v>28.2</v>
+        <v>88</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6647.4</v>
+        <v>3650.2</v>
       </c>
       <c r="U8">
-        <v>361.2</v>
+        <v>185.8</v>
       </c>
       <c r="V8">
-        <v>525.5</v>
+        <v>247.6</v>
       </c>
       <c r="W8">
-        <v>-135.30000000000001</v>
+        <v>-43.6</v>
       </c>
       <c r="X8">
-        <v>-564.5</v>
+        <v>-33.6</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-154.19999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>484.5</v>
+        <v>141.30000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>138.69999999999999</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="D9">
-        <v>2605.8000000000002</v>
+        <v>1398</v>
       </c>
       <c r="E9">
-        <v>1797.5</v>
+        <v>1049</v>
       </c>
       <c r="F9">
-        <v>682.8</v>
+        <v>425</v>
       </c>
       <c r="G9">
-        <v>3415.8</v>
+        <v>1909.3</v>
       </c>
       <c r="H9">
-        <v>16941.8</v>
+        <v>8495</v>
       </c>
       <c r="I9">
-        <v>1004.9</v>
+        <v>480</v>
       </c>
       <c r="J9">
-        <v>4593.7</v>
+        <v>2041</v>
       </c>
       <c r="K9">
-        <v>633.4</v>
+        <v>141.6</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1473,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2689.9</v>
+        <v>1256.2</v>
       </c>
       <c r="O9">
-        <v>9926</v>
+        <v>4850.2</v>
       </c>
       <c r="P9">
-        <v>5317</v>
+        <v>2409.6999999999998</v>
       </c>
       <c r="Q9">
-        <v>93.2</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>20900</v>
+        <v>17200</v>
       </c>
       <c r="T9">
-        <v>7015.8</v>
+        <v>3644.8</v>
       </c>
       <c r="U9">
-        <v>454.4</v>
+        <v>253.7</v>
       </c>
       <c r="V9">
-        <v>522</v>
+        <v>339.2</v>
       </c>
       <c r="W9">
-        <v>-135.5</v>
+        <v>-45.8</v>
       </c>
       <c r="X9">
-        <v>559.20000000000005</v>
+        <v>8.5</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AA9">
-        <v>138.69999999999999</v>
+        <v>144.30000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>278.3</v>
+        <v>125.8</v>
       </c>
       <c r="D10">
-        <v>2562.4</v>
+        <v>1447</v>
       </c>
       <c r="E10">
-        <v>1722.3</v>
+        <v>1085.4000000000001</v>
       </c>
       <c r="F10">
-        <v>662.3</v>
+        <v>414</v>
       </c>
       <c r="G10">
-        <v>3563.1</v>
+        <v>1834.5</v>
       </c>
       <c r="H10">
-        <v>17393.099999999999</v>
+        <v>8675.9</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>487.3</v>
       </c>
       <c r="J10">
-        <v>5114.3999999999996</v>
+        <v>2027.3</v>
       </c>
       <c r="K10">
-        <v>835.9</v>
+        <v>54.7</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-67.400000000000006</v>
       </c>
       <c r="M10">
-        <v>-65</v>
+        <v>-20.6</v>
       </c>
       <c r="N10">
-        <v>2966.9</v>
+        <v>1282.2</v>
       </c>
       <c r="O10">
-        <v>10551.2</v>
+        <v>4881.2</v>
       </c>
       <c r="P10">
-        <v>6055.5</v>
+        <v>2402.8000000000002</v>
       </c>
       <c r="Q10">
-        <v>91.2</v>
+        <v>-148.9</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>6841.9</v>
+        <v>3794.7</v>
       </c>
       <c r="U10">
-        <v>545.6</v>
+        <v>104.8</v>
       </c>
       <c r="V10">
-        <v>283.60000000000002</v>
+        <v>263.2</v>
       </c>
       <c r="W10">
-        <v>-136</v>
+        <v>-45.9</v>
       </c>
       <c r="X10">
-        <v>157.1</v>
+        <v>-78.599999999999994</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="AA10">
-        <v>278.3</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>290.39999999999998</v>
+        <v>113.6</v>
       </c>
       <c r="D11">
-        <v>2484.1999999999998</v>
+        <v>1578.1</v>
       </c>
       <c r="E11">
-        <v>1748.7</v>
+        <v>1211</v>
       </c>
       <c r="F11">
-        <v>670.6</v>
+        <v>401.8</v>
       </c>
       <c r="G11">
-        <v>3379.2</v>
+        <v>1923.1</v>
       </c>
       <c r="H11">
-        <v>17221.2</v>
+        <v>8840.7999999999993</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="J11">
-        <v>4653.8</v>
+        <v>2028.5</v>
       </c>
       <c r="K11">
-        <v>1239.8</v>
+        <v>70.5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3221.6</v>
+        <v>1333.9</v>
       </c>
       <c r="O11">
-        <v>10305.1</v>
+        <v>4981.2</v>
       </c>
       <c r="P11">
-        <v>5991.6</v>
+        <v>2424.4</v>
       </c>
       <c r="Q11">
-        <v>-144</v>
+        <v>-31.4</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6916.1</v>
+        <v>3859.6</v>
       </c>
       <c r="U11">
-        <v>401.6</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="V11">
-        <v>324.39999999999998</v>
+        <v>176.9</v>
       </c>
       <c r="W11">
-        <v>-132.9</v>
+        <v>-46</v>
       </c>
       <c r="X11">
-        <v>-114.4</v>
+        <v>-53.1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
       <c r="AA11">
-        <v>290.39999999999998</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>288.39999999999998</v>
+        <v>26.6</v>
       </c>
       <c r="D12">
-        <v>2547.3000000000002</v>
+        <v>1629.9</v>
       </c>
       <c r="E12">
-        <v>1782.2</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="F12">
-        <v>671.8</v>
+        <v>425.1</v>
       </c>
       <c r="G12">
-        <v>3480.7</v>
+        <v>2018.4</v>
       </c>
       <c r="H12">
-        <v>17491.3</v>
+        <v>8948.9</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4651.6000000000004</v>
+        <v>2150.6999999999998</v>
       </c>
       <c r="K12">
-        <v>1406</v>
+        <v>217.6</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3357.7</v>
+        <v>1167.4000000000001</v>
       </c>
       <c r="O12">
-        <v>10428.1</v>
+        <v>4998.8</v>
       </c>
       <c r="P12">
-        <v>6135</v>
+        <v>2368.3000000000002</v>
       </c>
       <c r="Q12">
-        <v>17.2</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7063.2</v>
+        <v>3950.1</v>
       </c>
       <c r="U12">
-        <v>418.8</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="V12">
-        <v>456.5</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="W12">
-        <v>-147.9</v>
+        <v>-46.1</v>
       </c>
       <c r="X12">
-        <v>82.4</v>
+        <v>-141.69999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="AA12">
-        <v>288.39999999999998</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>137.1</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="D13">
-        <v>2586.5</v>
+        <v>1642.3</v>
       </c>
       <c r="E13">
-        <v>1793.8</v>
+        <v>1271.3</v>
       </c>
       <c r="F13">
-        <v>703.6</v>
+        <v>443.3</v>
       </c>
       <c r="G13">
-        <v>3439.1</v>
+        <v>2109.5</v>
       </c>
       <c r="H13">
-        <v>17850.099999999999</v>
+        <v>9473.5</v>
       </c>
       <c r="I13">
-        <v>1025.5</v>
+        <v>547.29999999999995</v>
       </c>
       <c r="J13">
-        <v>5062.3999999999996</v>
+        <v>2168.6</v>
       </c>
       <c r="K13">
-        <v>709.9</v>
+        <v>201.6</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3227.6</v>
+        <v>1581.2</v>
       </c>
       <c r="O13">
-        <v>10275.4</v>
+        <v>5502.9</v>
       </c>
       <c r="P13">
-        <v>6283.2</v>
+        <v>2546.6</v>
       </c>
       <c r="Q13">
-        <v>31.6</v>
+        <v>-65.099999999999994</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>21300</v>
+        <v>18500</v>
       </c>
       <c r="T13">
-        <v>7574.7</v>
+        <v>3970.6</v>
       </c>
       <c r="U13">
-        <v>450.4</v>
+        <v>76.2</v>
       </c>
       <c r="V13">
-        <v>502.9</v>
+        <v>305.5</v>
       </c>
       <c r="W13">
-        <v>-148.80000000000001</v>
+        <v>-50.6</v>
       </c>
       <c r="X13">
-        <v>-9.6999999999999993</v>
+        <v>90.7</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>137.1</v>
+        <v>131.30000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>290.2</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="D14">
-        <v>2545.5</v>
+        <v>1684.9</v>
       </c>
       <c r="E14">
-        <v>1713.2</v>
+        <v>1305.5</v>
       </c>
       <c r="F14">
-        <v>679.6</v>
+        <v>454.7</v>
       </c>
       <c r="G14">
-        <v>3330.1</v>
+        <v>2214.6999999999998</v>
       </c>
       <c r="H14">
-        <v>17915.2</v>
+        <v>9786.6</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5026.2</v>
+        <v>2373.6999999999998</v>
       </c>
       <c r="K14">
-        <v>1030.5</v>
+        <v>97</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="M14">
-        <v>-434</v>
+        <v>-97.5</v>
       </c>
       <c r="N14">
-        <v>3145.2</v>
+        <v>1441.4</v>
       </c>
       <c r="O14">
-        <v>10133.799999999999</v>
+        <v>5608.3</v>
       </c>
       <c r="P14">
-        <v>6178</v>
+        <v>2572.4</v>
       </c>
       <c r="Q14">
-        <v>-62.8</v>
+        <v>16.7</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>7781.4</v>
+        <v>4178.3</v>
       </c>
       <c r="U14">
-        <v>387.6</v>
+        <v>92.9</v>
       </c>
       <c r="V14">
-        <v>546.9</v>
+        <v>205.7</v>
       </c>
       <c r="W14">
-        <v>-149.9</v>
+        <v>-50.9</v>
       </c>
       <c r="X14">
-        <v>-238.2</v>
+        <v>-20.6</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="AA14">
-        <v>290.2</v>
+        <v>131.80000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>283.5</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="D15">
-        <v>2581.9</v>
+        <v>1856.5</v>
       </c>
       <c r="E15">
-        <v>1748.4</v>
+        <v>1389.3</v>
       </c>
       <c r="F15">
-        <v>664.3</v>
+        <v>486.9</v>
       </c>
       <c r="G15">
-        <v>3299.9</v>
+        <v>2325.5</v>
       </c>
       <c r="H15">
-        <v>17963</v>
+        <v>9962.5</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4997.6000000000004</v>
+        <v>2001.5</v>
       </c>
       <c r="K15">
-        <v>1061.5</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3110.3</v>
+        <v>1899.6</v>
       </c>
       <c r="O15">
-        <v>10091.6</v>
+        <v>5635.5</v>
       </c>
       <c r="P15">
-        <v>6174.9</v>
+        <v>2654.2</v>
       </c>
       <c r="Q15">
-        <v>-30.7</v>
+        <v>49.4</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7871.4</v>
+        <v>4327</v>
       </c>
       <c r="U15">
-        <v>356.9</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="V15">
-        <v>478.5</v>
+        <v>166.3</v>
       </c>
       <c r="W15">
-        <v>-150.30000000000001</v>
+        <v>-51.3</v>
       </c>
       <c r="X15">
-        <v>-99.5</v>
+        <v>76.8</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="AA15">
-        <v>283.5</v>
+        <v>141.19999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="D16">
-        <v>2634.6</v>
+        <v>1892.5</v>
       </c>
       <c r="E16">
-        <v>1770.2</v>
+        <v>1497.4</v>
       </c>
       <c r="F16">
-        <v>715.9</v>
+        <v>504.2</v>
       </c>
       <c r="G16">
-        <v>3339.8</v>
+        <v>2337.8000000000002</v>
       </c>
       <c r="H16">
-        <v>18316.2</v>
+        <v>9930</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4956.6000000000004</v>
+        <v>2128.1</v>
       </c>
       <c r="K16">
-        <v>1115.2</v>
+        <v>109.2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3156.1</v>
+        <v>1664</v>
       </c>
       <c r="O16">
-        <v>10118.6</v>
+        <v>5522</v>
       </c>
       <c r="P16">
-        <v>6161.2</v>
+        <v>2459.8000000000002</v>
       </c>
       <c r="Q16">
-        <v>-19.3</v>
+        <v>-52.8</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>8197.6</v>
+        <v>4408</v>
       </c>
       <c r="U16">
-        <v>337.6</v>
+        <v>89.5</v>
       </c>
       <c r="V16">
-        <v>559.29999999999995</v>
+        <v>324.10000000000002</v>
       </c>
       <c r="W16">
-        <v>-163.5</v>
+        <v>-51.5</v>
       </c>
       <c r="X16">
-        <v>-145</v>
+        <v>-194.4</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>2.2999999999999998</v>
+        <v>-14.3</v>
       </c>
       <c r="AA16">
-        <v>314</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>168.1</v>
       </c>
       <c r="D17">
-        <v>2677</v>
+        <v>1977.5</v>
       </c>
       <c r="E17">
-        <v>1709.2</v>
+        <v>1526</v>
       </c>
       <c r="F17">
-        <v>744.6</v>
+        <v>502</v>
       </c>
       <c r="G17">
-        <v>3294.8</v>
+        <v>2416.9</v>
       </c>
       <c r="H17">
-        <v>17779.099999999999</v>
+        <v>10040.4</v>
       </c>
       <c r="I17">
-        <v>740.6</v>
+        <v>707</v>
       </c>
       <c r="J17">
-        <v>4824.8</v>
+        <v>2113.6</v>
       </c>
       <c r="K17">
-        <v>1228.7</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2137,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2963</v>
+        <v>1705.6</v>
       </c>
       <c r="O17">
-        <v>9970.5</v>
+        <v>5427.5</v>
       </c>
       <c r="P17">
-        <v>6137.6</v>
+        <v>2423.6999999999998</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>56.8</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>20900</v>
+        <v>19300</v>
       </c>
       <c r="T17">
-        <v>7808.6</v>
+        <v>4612.8999999999996</v>
       </c>
       <c r="U17">
-        <v>336.6</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="V17">
-        <v>602.4</v>
+        <v>389.8</v>
       </c>
       <c r="W17">
-        <v>-164</v>
+        <v>-65.2</v>
       </c>
       <c r="X17">
-        <v>-178.7</v>
+        <v>-118.6</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AA17">
-        <v>104</v>
+        <v>168.1</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>324.60000000000002</v>
+        <v>166.8</v>
       </c>
       <c r="D18">
-        <v>2560.8000000000002</v>
+        <v>1991</v>
       </c>
       <c r="E18">
-        <v>1573.4</v>
+        <v>1539.1</v>
       </c>
       <c r="F18">
-        <v>729.8</v>
+        <v>515.5</v>
       </c>
       <c r="G18">
-        <v>3137.2</v>
+        <v>2611</v>
       </c>
       <c r="H18">
-        <v>17635.400000000001</v>
+        <v>10653.4</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4751.3</v>
+        <v>2241.4</v>
       </c>
       <c r="K18">
-        <v>1283.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-38.5</v>
+        <v>-13.5</v>
       </c>
       <c r="N18">
-        <v>3001.9</v>
+        <v>1804.9</v>
       </c>
       <c r="O18">
-        <v>9843.4</v>
+        <v>5728.8</v>
       </c>
       <c r="P18">
-        <v>6120.2</v>
+        <v>2565.1999999999998</v>
       </c>
       <c r="Q18">
-        <v>-97.8</v>
+        <v>126.4</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>7792</v>
+        <v>4924.6000000000004</v>
       </c>
       <c r="U18">
-        <v>238.8</v>
+        <v>272.7</v>
       </c>
       <c r="V18">
-        <v>486.6</v>
+        <v>355.3</v>
       </c>
       <c r="W18">
-        <v>-164.4</v>
+        <v>-65.5</v>
       </c>
       <c r="X18">
-        <v>-111.9</v>
+        <v>25.4</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="AA18">
-        <v>324.60000000000002</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>175.3</v>
       </c>
       <c r="D19">
-        <v>2414.5</v>
+        <v>2003.3</v>
       </c>
       <c r="E19">
-        <v>1540.7</v>
+        <v>1557.8</v>
       </c>
       <c r="F19">
-        <v>716.3</v>
+        <v>534.4</v>
       </c>
       <c r="G19">
-        <v>3114.5</v>
+        <v>2771.2</v>
       </c>
       <c r="H19">
-        <v>17493.8</v>
+        <v>10707.3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4511.5</v>
+        <v>2115</v>
       </c>
       <c r="K19">
-        <v>1261</v>
+        <v>47.6</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3081.3</v>
+        <v>1845.4</v>
       </c>
       <c r="O19">
-        <v>9737.5</v>
+        <v>5611.1</v>
       </c>
       <c r="P19">
-        <v>5930.3</v>
+        <v>2511.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7756.3</v>
+        <v>5096.2</v>
       </c>
       <c r="U19">
-        <v>195.7</v>
+        <v>410.9</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>314.8</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-65.8</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="AA19">
-        <v>290</v>
+        <v>175.3</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>318.8</v>
+        <v>190.6</v>
       </c>
       <c r="D20">
-        <v>2470.1999999999998</v>
+        <v>2078.4</v>
       </c>
       <c r="E20">
-        <v>1589.8</v>
+        <v>1569.1</v>
       </c>
       <c r="F20">
-        <v>755</v>
+        <v>546.70000000000005</v>
       </c>
       <c r="G20">
-        <v>3102.3</v>
+        <v>2422.5</v>
       </c>
       <c r="H20">
-        <v>17671.5</v>
+        <v>10309.799999999999</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4691.3</v>
+        <v>2061.3000000000002</v>
       </c>
       <c r="K20">
-        <v>1087.8</v>
+        <v>276.60000000000002</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2918.9</v>
+        <v>1810</v>
       </c>
       <c r="O20">
-        <v>9662.2999999999993</v>
+        <v>5515.8</v>
       </c>
       <c r="P20">
-        <v>5864</v>
+        <v>2514.9</v>
       </c>
       <c r="Q20">
-        <v>19.600000000000001</v>
+        <v>-328.8</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8009.2</v>
+        <v>4794</v>
       </c>
       <c r="U20">
-        <v>215.3</v>
+        <v>82.1</v>
       </c>
       <c r="V20">
-        <v>690.7</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="W20">
-        <v>-174</v>
+        <v>-73.400000000000006</v>
       </c>
       <c r="X20">
-        <v>-272.10000000000002</v>
+        <v>-347.2</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="AA20">
-        <v>318.8</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>344.5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2449.4</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1601.2</v>
+        <v>1541</v>
       </c>
       <c r="F21">
-        <v>753.5</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2793.5</v>
+        <v>2414.6999999999998</v>
       </c>
       <c r="H21">
-        <v>17334.5</v>
+        <v>10408.799999999999</v>
       </c>
       <c r="I21">
-        <v>621.9</v>
+        <v>722.7</v>
       </c>
       <c r="J21">
-        <v>3949.9</v>
+        <v>2046.7</v>
       </c>
       <c r="K21">
-        <v>1494.3</v>
+        <v>362.4</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3644.4</v>
+        <v>1943.2</v>
       </c>
       <c r="O21">
-        <v>9953.4</v>
+        <v>5682.2</v>
       </c>
       <c r="P21">
-        <v>5879.8</v>
+        <v>2546.5</v>
       </c>
       <c r="Q21">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="T21">
-        <v>7381.1</v>
+        <v>4726.6000000000004</v>
       </c>
       <c r="U21">
-        <v>206.4</v>
+        <v>55.8</v>
       </c>
       <c r="V21">
-        <v>779.9</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>-174.1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-416.7</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>344.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>363.6</v>
+        <v>180.7</v>
       </c>
       <c r="D22">
-        <v>1866.3</v>
+        <v>2015.8</v>
       </c>
       <c r="E22">
-        <v>1417.6</v>
+        <v>1605.4</v>
       </c>
       <c r="F22">
-        <v>570.4</v>
+        <v>524.1</v>
       </c>
       <c r="G22">
-        <v>2779</v>
+        <v>2463</v>
       </c>
       <c r="H22">
-        <v>17260.3</v>
+        <v>10624.9</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3870.5</v>
+        <v>2272.4</v>
       </c>
       <c r="K22">
-        <v>1539.4</v>
+        <v>230</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-78.3</v>
       </c>
       <c r="M22">
-        <v>-65.5</v>
+        <v>-66.3</v>
       </c>
       <c r="N22">
-        <v>3572.4</v>
+        <v>1729.7</v>
       </c>
       <c r="O22">
-        <v>9761.2999999999993</v>
+        <v>5735.6</v>
       </c>
       <c r="P22">
-        <v>5817.8</v>
+        <v>2608.1</v>
       </c>
       <c r="Q22">
-        <v>72.7</v>
+        <v>14.9</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>7499</v>
+        <v>4889.3</v>
       </c>
       <c r="U22">
-        <v>279.10000000000002</v>
+        <v>70.7</v>
       </c>
       <c r="V22">
-        <v>574.1</v>
+        <v>246.9</v>
       </c>
       <c r="W22">
-        <v>-174.4</v>
+        <v>-71</v>
       </c>
       <c r="X22">
-        <v>-198.1</v>
+        <v>28.7</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>363.6</v>
+        <v>180.7</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-473.3</v>
+        <v>204</v>
       </c>
       <c r="D23">
-        <v>1777.4</v>
+        <v>2229.5</v>
       </c>
       <c r="E23">
-        <v>1517.9</v>
+        <v>1608.7</v>
       </c>
       <c r="F23">
-        <v>564.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="G23">
-        <v>3031.2</v>
+        <v>2563</v>
       </c>
       <c r="H23">
-        <v>16810.8</v>
+        <v>11032.5</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3575.5</v>
+        <v>2349.1999999999998</v>
       </c>
       <c r="K23">
-        <v>1480.9</v>
+        <v>409</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3839.1</v>
+        <v>1894</v>
       </c>
       <c r="O23">
-        <v>9757.7000000000007</v>
+        <v>5873.1</v>
       </c>
       <c r="P23">
-        <v>5820.3</v>
+        <v>2802.8</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7053.1</v>
+        <v>5159.3999999999996</v>
       </c>
       <c r="U23">
-        <v>313.10000000000002</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="V23">
-        <v>498</v>
+        <v>306</v>
       </c>
       <c r="W23">
-        <v>-174.7</v>
+        <v>-71.2</v>
       </c>
       <c r="X23">
-        <v>-210.5</v>
+        <v>156</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-2.8</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="AA23">
-        <v>-473.3</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>346.8</v>
+        <v>210.3</v>
       </c>
       <c r="D24">
-        <v>1914.5</v>
+        <v>2245.6999999999998</v>
       </c>
       <c r="E24">
-        <v>1674.1</v>
+        <v>1679.3</v>
       </c>
       <c r="F24">
-        <v>594.29999999999995</v>
+        <v>602.20000000000005</v>
       </c>
       <c r="G24">
-        <v>3378.8</v>
+        <v>2612.5</v>
       </c>
       <c r="H24">
-        <v>17083.5</v>
+        <v>11290.8</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3930.3</v>
+        <v>2406.6999999999998</v>
       </c>
       <c r="K24">
-        <v>1043</v>
+        <v>527.5</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3658.9</v>
+        <v>2061.1999999999998</v>
       </c>
       <c r="O24">
-        <v>9903.2999999999993</v>
+        <v>6073</v>
       </c>
       <c r="P24">
-        <v>5688.4</v>
+        <v>2979.5</v>
       </c>
       <c r="Q24">
-        <v>201.7</v>
+        <v>-13.4</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7180.2</v>
+        <v>5217.8</v>
       </c>
       <c r="U24">
-        <v>514.79999999999995</v>
+        <v>60.5</v>
       </c>
       <c r="V24">
-        <v>719.3</v>
+        <v>346.3</v>
       </c>
       <c r="W24">
-        <v>-185.8</v>
+        <v>-76</v>
       </c>
       <c r="X24">
-        <v>-258.7</v>
+        <v>-136</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.5</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="AA24">
-        <v>346.8</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>394</v>
+        <v>128.4</v>
       </c>
       <c r="D25">
-        <v>1945.5</v>
+        <v>2261.8000000000002</v>
       </c>
       <c r="E25">
-        <v>1299</v>
+        <v>1755.7</v>
       </c>
       <c r="F25">
-        <v>598</v>
+        <v>592.29999999999995</v>
       </c>
       <c r="G25">
-        <v>4317.3</v>
+        <v>2612.6</v>
       </c>
       <c r="H25">
-        <v>18028.599999999999</v>
+        <v>11180.7</v>
       </c>
       <c r="I25">
-        <v>578.79999999999995</v>
+        <v>841.7</v>
       </c>
       <c r="J25">
-        <v>3922.4</v>
+        <v>2280.1999999999998</v>
       </c>
       <c r="K25">
-        <v>935.8</v>
+        <v>471.8</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3283.1</v>
+        <v>2323.4</v>
       </c>
       <c r="O25">
-        <v>10815.2</v>
+        <v>6078.7</v>
       </c>
       <c r="P25">
-        <v>5223.6000000000004</v>
+        <v>2904.1</v>
       </c>
       <c r="Q25">
-        <v>986.5</v>
+        <v>-25.3</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>18300</v>
+        <v>20000</v>
       </c>
       <c r="T25">
-        <v>7213.4</v>
+        <v>5102</v>
       </c>
       <c r="U25">
-        <v>1293.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="V25">
-        <v>869.3</v>
+        <v>447</v>
       </c>
       <c r="W25">
-        <v>-186.3</v>
+        <v>-75.400000000000006</v>
       </c>
       <c r="X25">
-        <v>363</v>
+        <v>-471.3</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AA25">
-        <v>394</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>299.8</v>
+        <v>230.3</v>
       </c>
       <c r="D26">
-        <v>1882.5</v>
+        <v>2267.8000000000002</v>
       </c>
       <c r="E26">
-        <v>1147.9000000000001</v>
+        <v>1762.3</v>
       </c>
       <c r="F26">
-        <v>565.79999999999995</v>
+        <v>618.1</v>
       </c>
       <c r="G26">
-        <v>3548.8</v>
+        <v>2650.1</v>
       </c>
       <c r="H26">
-        <v>15956.2</v>
+        <v>11500</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3304.1</v>
+        <v>2336</v>
       </c>
       <c r="K26">
-        <v>156.1</v>
+        <v>648.5</v>
       </c>
       <c r="L26">
-        <v>-772.2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-14.4</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="N26">
-        <v>2929.8</v>
+        <v>2406</v>
       </c>
       <c r="O26">
-        <v>8695.1</v>
+        <v>6199.7</v>
       </c>
       <c r="P26">
-        <v>4333.5</v>
+        <v>3150.2</v>
       </c>
       <c r="Q26">
-        <v>-664</v>
+        <v>26.3</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>7261.1</v>
+        <v>5300.3</v>
       </c>
       <c r="U26">
-        <v>655.5</v>
+        <v>64.5</v>
       </c>
       <c r="V26">
-        <v>514.70000000000005</v>
+        <v>159.4</v>
       </c>
       <c r="W26">
-        <v>-186.9</v>
+        <v>-73.900000000000006</v>
       </c>
       <c r="X26">
-        <v>-905</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-8.8000000000000007</v>
+        <v>-1.5</v>
       </c>
       <c r="AA26">
-        <v>299.8</v>
+        <v>230.3</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2130</v>
+        <v>227.6</v>
       </c>
       <c r="D27">
-        <v>1980.1</v>
+        <v>2298</v>
       </c>
       <c r="E27">
-        <v>1245.0999999999999</v>
+        <v>1844.6</v>
       </c>
       <c r="F27">
-        <v>576.29999999999995</v>
+        <v>622.1</v>
       </c>
       <c r="G27">
-        <v>5294.1</v>
+        <v>2908.7</v>
       </c>
       <c r="H27">
-        <v>17871.5</v>
+        <v>11878</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3323.7</v>
+        <v>2704.5</v>
       </c>
       <c r="K27">
-        <v>122.3</v>
+        <v>390.7</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2602.3000000000002</v>
+        <v>2262.3000000000002</v>
       </c>
       <c r="O27">
-        <v>8451.2999999999993</v>
+        <v>6423.1</v>
       </c>
       <c r="P27">
-        <v>3866.9</v>
+        <v>3313.9</v>
       </c>
       <c r="Q27">
-        <v>1202.5</v>
+        <v>-20.9</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>9420.2000000000007</v>
+        <v>5454.9</v>
       </c>
       <c r="U27">
-        <v>1869.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="V27">
-        <v>-174.3</v>
+        <v>225.3</v>
       </c>
       <c r="W27">
-        <v>-187.1</v>
+        <v>-73.599999999999994</v>
       </c>
       <c r="X27">
-        <v>-687.3</v>
+        <v>23.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1423.3</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>2130</v>
+        <v>227.6</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>101.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="D28">
-        <v>2121.9</v>
+        <v>2416.1999999999998</v>
       </c>
       <c r="E28">
-        <v>1184.5</v>
+        <v>1953.8</v>
       </c>
       <c r="F28">
-        <v>635.9</v>
+        <v>666.7</v>
       </c>
       <c r="G28">
-        <v>5347</v>
+        <v>3014.9</v>
       </c>
       <c r="H28">
-        <v>17853.8</v>
+        <v>12568.8</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3390</v>
+        <v>2749.3</v>
       </c>
       <c r="K28">
-        <v>143.4</v>
+        <v>810.8</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2433.1999999999998</v>
+        <v>2723.5</v>
       </c>
       <c r="O28">
-        <v>8343.9</v>
+        <v>6936.5</v>
       </c>
       <c r="P28">
-        <v>3949.5</v>
+        <v>3778.9</v>
       </c>
       <c r="Q28">
-        <v>463.3</v>
+        <v>-6.5</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>9509.9</v>
+        <v>5632.3</v>
       </c>
       <c r="U28">
-        <v>2332.6</v>
+        <v>31.7</v>
       </c>
       <c r="V28">
-        <v>505</v>
+        <v>424.1</v>
       </c>
       <c r="W28">
-        <v>-206.9</v>
+        <v>-82.4</v>
       </c>
       <c r="X28">
-        <v>-192.6</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>408.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA28">
-        <v>101.9</v>
+        <v>284.89999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>468.7</v>
+        <v>292.8</v>
       </c>
       <c r="D29">
-        <v>2203.1</v>
+        <v>2166.1999999999998</v>
       </c>
       <c r="E29">
-        <v>1352.1</v>
+        <v>1790.2</v>
       </c>
       <c r="F29">
-        <v>658.1</v>
+        <v>542.4</v>
       </c>
       <c r="G29">
-        <v>5876.7</v>
+        <v>2858.4</v>
       </c>
       <c r="H29">
-        <v>18467.2</v>
+        <v>12659.5</v>
       </c>
       <c r="I29">
-        <v>659.5</v>
+        <v>779.6</v>
       </c>
       <c r="J29">
-        <v>3424.6</v>
+        <v>2974.7</v>
       </c>
       <c r="K29">
-        <v>144</v>
+        <v>647.4</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2489</v>
+        <v>2422.6999999999998</v>
       </c>
       <c r="O29">
-        <v>8281.7000000000007</v>
+        <v>6986.6</v>
       </c>
       <c r="P29">
-        <v>3996.7</v>
+        <v>3721.9</v>
       </c>
       <c r="Q29">
-        <v>941</v>
+        <v>10.6</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="T29">
-        <v>10185.5</v>
+        <v>5672.9</v>
       </c>
       <c r="U29">
-        <v>3273.6</v>
+        <v>40.5</v>
       </c>
       <c r="V29">
-        <v>722.5</v>
+        <v>691.1</v>
       </c>
       <c r="W29">
-        <v>-207</v>
+        <v>-82.1</v>
       </c>
       <c r="X29">
-        <v>-186.5</v>
+        <v>-418.3</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>613.20000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="AA29">
-        <v>468.7</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>154.6</v>
+        <v>263.7</v>
       </c>
       <c r="D30">
-        <v>2216.6</v>
+        <v>2407.4</v>
       </c>
       <c r="E30">
-        <v>1318.8</v>
+        <v>1882.4</v>
       </c>
       <c r="F30">
-        <v>644.79999999999995</v>
+        <v>653.79999999999995</v>
       </c>
       <c r="G30">
-        <v>5355.5</v>
+        <v>2863.8</v>
       </c>
       <c r="H30">
-        <v>18208.8</v>
+        <v>13014.3</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3453.1</v>
+        <v>3415.6</v>
       </c>
       <c r="K30">
-        <v>87.1</v>
+        <v>463.8</v>
       </c>
       <c r="L30">
-        <v>-40.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-408.6</v>
+        <v>-41.2</v>
       </c>
       <c r="N30">
-        <v>1831.6</v>
+        <v>2224.6</v>
       </c>
       <c r="O30">
-        <v>7887.6</v>
+        <v>7227.8</v>
       </c>
       <c r="P30">
-        <v>3569</v>
+        <v>3975.4</v>
       </c>
       <c r="Q30">
-        <v>-551</v>
+        <v>56</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>10321.200000000001</v>
+        <v>5786.5</v>
       </c>
       <c r="U30">
-        <v>2722.6</v>
+        <v>96.5</v>
       </c>
       <c r="V30">
-        <v>556.9</v>
+        <v>366.7</v>
       </c>
       <c r="W30">
-        <v>-207.5</v>
+        <v>-81.900000000000006</v>
       </c>
       <c r="X30">
-        <v>-641.1</v>
+        <v>21.9</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>154.6</v>
+        <v>263.7</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>416.4</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2155.6999999999998</v>
+        <v>2542.6999999999998</v>
       </c>
       <c r="E31">
-        <v>1350.8</v>
+        <v>1969</v>
       </c>
       <c r="F31">
-        <v>649.20000000000005</v>
+        <v>671.1</v>
       </c>
       <c r="G31">
-        <v>5396.3</v>
+        <v>2991.5</v>
       </c>
       <c r="H31">
-        <v>18511.099999999999</v>
+        <v>13228.4</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3500.5</v>
+        <v>3646.4</v>
       </c>
       <c r="K31">
-        <v>112.5</v>
+        <v>692.9</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1752.3</v>
+        <v>2453.6999999999998</v>
       </c>
       <c r="O31">
-        <v>7817.9</v>
+        <v>7586.7</v>
       </c>
       <c r="P31">
-        <v>3644.4</v>
+        <v>4386.8</v>
       </c>
       <c r="Q31">
-        <v>344.3</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>10693.2</v>
+        <v>5641.7</v>
       </c>
       <c r="U31">
-        <v>3066.9</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V31">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>-208</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-174.5</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>270.5</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>416.4</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>473.9</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D32">
-        <v>2259</v>
+        <v>2749.7</v>
       </c>
       <c r="E32">
-        <v>1321.5</v>
+        <v>2007.4</v>
       </c>
       <c r="F32">
-        <v>713.6</v>
+        <v>708.6</v>
       </c>
       <c r="G32">
-        <v>5055.5</v>
+        <v>3121.6</v>
       </c>
       <c r="H32">
-        <v>19206</v>
+        <v>13075.9</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3796.4</v>
+        <v>3647.2</v>
       </c>
       <c r="K32">
-        <v>90.4</v>
+        <v>341.8</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2109.8000000000002</v>
+        <v>2128.5</v>
       </c>
       <c r="O32">
-        <v>8396</v>
+        <v>7391.7</v>
       </c>
       <c r="P32">
-        <v>3897.4</v>
+        <v>4030</v>
       </c>
       <c r="Q32">
-        <v>-80.400000000000006</v>
+        <v>-12.6</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10810</v>
+        <v>5684.2</v>
       </c>
       <c r="U32">
-        <v>2986.5</v>
+        <v>126.2</v>
       </c>
       <c r="V32">
-        <v>740.5</v>
+        <v>498.4</v>
       </c>
       <c r="W32">
-        <v>-241.1</v>
+        <v>-92.7</v>
       </c>
       <c r="X32">
-        <v>-282.2</v>
+        <v>-334</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>128.19999999999999</v>
+        <v>-1.8</v>
       </c>
       <c r="AA32">
-        <v>473.9</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>452.9</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="D33">
-        <v>2298.9</v>
+        <v>2714.7</v>
       </c>
       <c r="E33">
-        <v>1376.8</v>
+        <v>1751.4</v>
       </c>
       <c r="F33">
-        <v>733.1</v>
+        <v>687.9</v>
       </c>
       <c r="G33">
-        <v>5082.2</v>
+        <v>2848.1</v>
       </c>
       <c r="H33">
-        <v>19178.3</v>
+        <v>12571.3</v>
       </c>
       <c r="I33">
-        <v>594.6</v>
+        <v>755.2</v>
       </c>
       <c r="J33">
-        <v>3352.8</v>
+        <v>3515.4</v>
       </c>
       <c r="K33">
-        <v>54.3</v>
+        <v>419.3</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2338.3000000000002</v>
+        <v>2212</v>
       </c>
       <c r="O33">
-        <v>8002</v>
+        <v>7404.4</v>
       </c>
       <c r="P33">
-        <v>3826.5</v>
+        <v>3966.8</v>
       </c>
       <c r="Q33">
-        <v>-195.2</v>
+        <v>-22.7</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>16000</v>
+        <v>20600</v>
       </c>
       <c r="T33">
-        <v>11176.3</v>
+        <v>5166.8999999999996</v>
       </c>
       <c r="U33">
-        <v>2791.3</v>
+        <v>103.5</v>
       </c>
       <c r="V33">
-        <v>691</v>
+        <v>550.1</v>
       </c>
       <c r="W33">
-        <v>-241.2</v>
+        <v>-93.2</v>
       </c>
       <c r="X33">
-        <v>-262</v>
+        <v>-160.30000000000001</v>
       </c>
       <c r="Y33">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-177.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AA33">
-        <v>452.9</v>
+        <v>261.60000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>347.5</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D34">
-        <v>2224</v>
+        <v>2195.3000000000002</v>
       </c>
       <c r="E34">
-        <v>1319.7</v>
+        <v>1560.3</v>
       </c>
       <c r="F34">
-        <v>680</v>
+        <v>565.6</v>
       </c>
       <c r="G34">
-        <v>5089.8999999999996</v>
+        <v>2833.4</v>
       </c>
       <c r="H34">
-        <v>19142</v>
+        <v>12253.6</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>3323.7</v>
+        <v>3595.2</v>
       </c>
       <c r="K34">
-        <v>23</v>
+        <v>570</v>
       </c>
       <c r="L34">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>-2.6</v>
+        <v>-41.4</v>
       </c>
       <c r="N34">
-        <v>2303.5</v>
+        <v>2221.9</v>
       </c>
       <c r="O34">
-        <v>7938.6</v>
+        <v>7389.6</v>
       </c>
       <c r="P34">
-        <v>3778.3</v>
+        <v>4169.2</v>
       </c>
       <c r="Q34">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>11203.4</v>
+        <v>4864</v>
       </c>
       <c r="U34">
-        <v>2923.3</v>
+        <v>118.5</v>
       </c>
       <c r="V34">
-        <v>655.20000000000005</v>
+        <v>199.2</v>
       </c>
       <c r="W34">
-        <v>-241.5</v>
+        <v>-92.1</v>
       </c>
       <c r="X34">
-        <v>-289.8</v>
+        <v>122.9</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>172.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AA34">
-        <v>347.5</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>421.3</v>
+        <v>205.6</v>
       </c>
       <c r="D35">
-        <v>2187.6999999999998</v>
+        <v>1955.4</v>
       </c>
       <c r="E35">
-        <v>1293.0999999999999</v>
+        <v>1395.9</v>
       </c>
       <c r="F35">
-        <v>713</v>
+        <v>515.5</v>
       </c>
       <c r="G35">
-        <v>4895.2</v>
+        <v>2596.4</v>
       </c>
       <c r="H35">
-        <v>19244.5</v>
+        <v>11878.9</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3317</v>
+        <v>3456.6</v>
       </c>
       <c r="K35">
-        <v>54.1</v>
+        <v>592</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2073</v>
+        <v>1996.3</v>
       </c>
       <c r="O35">
-        <v>7741.1</v>
+        <v>7114.1</v>
       </c>
       <c r="P35">
-        <v>3806.5</v>
+        <v>4102.3999999999996</v>
       </c>
       <c r="Q35">
-        <v>-187.4</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11503.4</v>
+        <v>4764.8</v>
       </c>
       <c r="U35">
-        <v>2735.9</v>
+        <v>79.7</v>
       </c>
       <c r="V35">
-        <v>630.6</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="W35">
-        <v>-241.6</v>
+        <v>-92.2</v>
       </c>
       <c r="X35">
-        <v>-170</v>
+        <v>-50.5</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>421.3</v>
+        <v>205.6</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>488</v>
+        <v>113.2</v>
       </c>
       <c r="D36">
-        <v>2224</v>
+        <v>1976.2</v>
       </c>
       <c r="E36">
-        <v>1383.7</v>
+        <v>1447.9</v>
       </c>
       <c r="F36">
-        <v>758</v>
+        <v>558.6</v>
       </c>
       <c r="G36">
-        <v>4915.2</v>
+        <v>2571.1</v>
       </c>
       <c r="H36">
-        <v>19531.900000000001</v>
+        <v>12243.5</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>3280.6</v>
+        <v>3760</v>
       </c>
       <c r="K36">
-        <v>79.900000000000006</v>
+        <v>385.6</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2155.1999999999998</v>
+        <v>1792.8</v>
       </c>
       <c r="O36">
-        <v>7805.3</v>
+        <v>7180.6</v>
       </c>
       <c r="P36">
-        <v>3827.6</v>
+        <v>4149.3999999999996</v>
       </c>
       <c r="Q36">
-        <v>-39.1</v>
+        <v>-9.4</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>11726.6</v>
+        <v>5062.8999999999996</v>
       </c>
       <c r="U36">
-        <v>2696.8</v>
+        <v>70.3</v>
       </c>
       <c r="V36">
-        <v>717.6</v>
+        <v>405.7</v>
       </c>
       <c r="W36">
-        <v>-255.3</v>
+        <v>-94.5</v>
       </c>
       <c r="X36">
-        <v>-201</v>
+        <v>-189.9</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-11.7</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>488</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>503.2</v>
+        <v>243.9</v>
       </c>
       <c r="D37">
-        <v>2283.1999999999998</v>
+        <v>2129.3000000000002</v>
       </c>
       <c r="E37">
-        <v>1415.4</v>
+        <v>1528.1</v>
       </c>
       <c r="F37">
-        <v>792.4</v>
+        <v>594.20000000000005</v>
       </c>
       <c r="G37">
-        <v>4618.3</v>
+        <v>2997.8</v>
       </c>
       <c r="H37">
-        <v>18942.8</v>
+        <v>13029.1</v>
       </c>
       <c r="I37">
-        <v>528.20000000000005</v>
+        <v>577.6</v>
       </c>
       <c r="J37">
-        <v>3218</v>
+        <v>3712.4</v>
       </c>
       <c r="K37">
-        <v>58.2</v>
+        <v>333.8</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1820.9</v>
+        <v>2503.6</v>
       </c>
       <c r="O37">
-        <v>7554.5</v>
+        <v>8099.1</v>
       </c>
       <c r="P37">
-        <v>3327.8</v>
+        <v>4504.8999999999996</v>
       </c>
       <c r="Q37">
-        <v>-448.1</v>
+        <v>417.9</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>17440</v>
+        <v>18400</v>
       </c>
       <c r="T37">
-        <v>11388.3</v>
+        <v>4930</v>
       </c>
       <c r="U37">
-        <v>2248.6999999999998</v>
+        <v>488.2</v>
       </c>
       <c r="V37">
-        <v>966.5</v>
+        <v>464.4</v>
       </c>
       <c r="W37">
-        <v>-255.6</v>
+        <v>-94.5</v>
       </c>
       <c r="X37">
-        <v>-709.7</v>
+        <v>212.5</v>
       </c>
       <c r="Y37">
-        <v>10.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z37">
-        <v>-166.8</v>
+        <v>-23.4</v>
       </c>
       <c r="AA37">
-        <v>503.2</v>
+        <v>243.9</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>475.6</v>
+        <v>251.8</v>
       </c>
       <c r="D38">
-        <v>2254.6999999999998</v>
+        <v>2173.5</v>
       </c>
       <c r="E38">
-        <v>1383</v>
+        <v>1510</v>
       </c>
       <c r="F38">
-        <v>768.1</v>
+        <v>604.9</v>
       </c>
       <c r="G38">
-        <v>4719.7</v>
+        <v>2783.2</v>
       </c>
       <c r="H38">
-        <v>19651.599999999999</v>
+        <v>12914.5</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3265.6</v>
+        <v>3708.6</v>
       </c>
       <c r="K38">
-        <v>36.5</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="L38">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>-2.8</v>
+        <v>-77.599999999999994</v>
       </c>
       <c r="N38">
-        <v>1819</v>
+        <v>2144.9</v>
       </c>
       <c r="O38">
-        <v>7721.8</v>
+        <v>7730.4</v>
       </c>
       <c r="P38">
-        <v>3706.1</v>
+        <v>4423.1000000000004</v>
       </c>
       <c r="Q38">
-        <v>157.4</v>
+        <v>-165.2</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>11929.8</v>
+        <v>5184.1000000000004</v>
       </c>
       <c r="U38">
-        <v>2406.1</v>
+        <v>323</v>
       </c>
       <c r="V38">
-        <v>667</v>
+        <v>193.9</v>
       </c>
       <c r="W38">
-        <v>-255.7</v>
+        <v>-95.1</v>
       </c>
       <c r="X38">
-        <v>-270.3</v>
+        <v>-83.7</v>
       </c>
       <c r="Y38">
-        <v>296.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>169.9</v>
+        <v>-3</v>
       </c>
       <c r="AA38">
-        <v>475.6</v>
+        <v>251.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="D39">
-        <v>2216.3000000000002</v>
+        <v>2249</v>
       </c>
       <c r="E39">
-        <v>1573.4</v>
+        <v>1569.9</v>
       </c>
       <c r="F39">
-        <v>756.2</v>
+        <v>620.29999999999995</v>
       </c>
       <c r="G39">
-        <v>4688.5</v>
+        <v>2822</v>
       </c>
       <c r="H39">
-        <v>19501.2</v>
+        <v>13152.6</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>3245.2</v>
+        <v>3470.4</v>
       </c>
       <c r="K39">
-        <v>29</v>
+        <v>344.9</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1806.9</v>
+        <v>2345.6999999999998</v>
       </c>
       <c r="O39">
-        <v>7777.5</v>
+        <v>7734.3</v>
       </c>
       <c r="P39">
-        <v>3706.5</v>
+        <v>4346.2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-92.1</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>11723.7</v>
+        <v>5418.3</v>
       </c>
       <c r="U39">
-        <v>2220.1</v>
+        <v>230.9</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>348.8</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-95.4</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>-135.4</v>
       </c>
       <c r="Y39">
-        <v>326.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-71.099999999999994</v>
       </c>
       <c r="AA39">
-        <v>477.8</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>446.5</v>
+        <v>253.2</v>
       </c>
       <c r="D40">
-        <v>2065.1999999999998</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="E40">
-        <v>1550.3</v>
+        <v>1537</v>
       </c>
       <c r="F40">
-        <v>720.3</v>
+        <v>641.29999999999995</v>
       </c>
       <c r="G40">
-        <v>9006.5</v>
+        <v>2945.4</v>
       </c>
       <c r="H40">
-        <v>24782.1</v>
+        <v>12999.4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>7358.8</v>
+        <v>3367.9</v>
       </c>
       <c r="K40">
-        <v>14.3</v>
+        <v>341.2</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2591</v>
+        <v>2312.8000000000002</v>
       </c>
       <c r="O40">
-        <v>12758.7</v>
+        <v>7587.7</v>
       </c>
       <c r="P40">
-        <v>8590.7999999999993</v>
+        <v>4189.6000000000004</v>
       </c>
       <c r="Q40">
-        <v>1701.3</v>
+        <v>174.4</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>12023.4</v>
+        <v>5411.7</v>
       </c>
       <c r="U40">
-        <v>3921.4</v>
+        <v>405.3</v>
       </c>
       <c r="V40">
-        <v>774.7</v>
+        <v>490.5</v>
       </c>
       <c r="W40">
-        <v>-295.89999999999998</v>
+        <v>-104.1</v>
       </c>
       <c r="X40">
-        <v>4543.3</v>
+        <v>-80.900000000000006</v>
       </c>
       <c r="Y40">
-        <v>325.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-2517.1999999999998</v>
+        <v>-0.2</v>
       </c>
       <c r="AA40">
-        <v>446.5</v>
+        <v>253.2</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>486.8</v>
+        <v>272.10000000000002</v>
       </c>
       <c r="D41">
-        <v>2320.1</v>
+        <v>2351.1999999999998</v>
       </c>
       <c r="E41">
-        <v>1417.4</v>
+        <v>1684.6</v>
       </c>
       <c r="F41">
-        <v>753.6</v>
+        <v>656.5</v>
       </c>
       <c r="G41">
-        <v>8684.9</v>
+        <v>3033.8</v>
       </c>
       <c r="H41">
-        <v>25168.5</v>
+        <v>13505.9</v>
       </c>
       <c r="I41">
-        <v>546.20000000000005</v>
+        <v>662.2</v>
       </c>
       <c r="J41">
-        <v>7422.6</v>
+        <v>3653.8</v>
       </c>
       <c r="K41">
-        <v>7.7</v>
+        <v>286</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2416.6999999999998</v>
+        <v>2244.1</v>
       </c>
       <c r="O41">
-        <v>12725.4</v>
+        <v>7808.3</v>
       </c>
       <c r="P41">
-        <v>8316.4</v>
+        <v>4132</v>
       </c>
       <c r="Q41">
-        <v>1331.6</v>
+        <v>-31</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>19000</v>
+        <v>17900</v>
       </c>
       <c r="T41">
-        <v>12443.1</v>
+        <v>5697.6</v>
       </c>
       <c r="U41">
-        <v>5253</v>
+        <v>374.3</v>
       </c>
       <c r="V41">
-        <v>1251.5</v>
+        <v>489.2</v>
       </c>
       <c r="W41">
-        <v>-296</v>
+        <v>-104.1</v>
       </c>
       <c r="X41">
-        <v>-720.8</v>
+        <v>-279.7</v>
       </c>
       <c r="Y41">
-        <v>345</v>
+        <v>8.4</v>
       </c>
       <c r="Z41">
-        <v>1411</v>
+        <v>-0.1</v>
       </c>
       <c r="AA41">
-        <v>486.8</v>
+        <v>272.10000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="D42">
+        <v>2292.5</v>
+      </c>
+      <c r="E42">
+        <v>1639.4</v>
+      </c>
+      <c r="F42">
+        <v>622.9</v>
+      </c>
+      <c r="G42">
+        <v>2870.2</v>
+      </c>
+      <c r="H42">
+        <v>13459.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3619.5</v>
+      </c>
+      <c r="K42">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-170.9</v>
+      </c>
+      <c r="N42">
+        <v>1937.1</v>
+      </c>
+      <c r="O42">
+        <v>7433.9</v>
+      </c>
+      <c r="P42">
+        <v>3994.8</v>
+      </c>
+      <c r="Q42">
+        <v>-127.1</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>6025.8</v>
+      </c>
+      <c r="U42">
+        <v>247.2</v>
+      </c>
+      <c r="V42">
+        <v>336.6</v>
+      </c>
+      <c r="W42">
+        <v>-104.8</v>
+      </c>
+      <c r="X42">
+        <v>-190.6</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>268.60000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2403</v>
+      </c>
+      <c r="E43">
+        <v>1729.1</v>
+      </c>
+      <c r="F43">
+        <v>654.79999999999995</v>
+      </c>
+      <c r="G43">
+        <v>2976.5</v>
+      </c>
+      <c r="H43">
+        <v>13820.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3714.7</v>
+      </c>
+      <c r="K43">
+        <v>662.1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2211.3000000000002</v>
+      </c>
+      <c r="O43">
+        <v>7770.1</v>
+      </c>
+      <c r="P43">
+        <v>4399.7</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>6050.6</v>
+      </c>
+      <c r="U43">
+        <v>270.3</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>304.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>326.5</v>
+      </c>
+      <c r="D44">
+        <v>2472</v>
+      </c>
+      <c r="E44">
+        <v>1795.1</v>
+      </c>
+      <c r="F44">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="G44">
+        <v>3276.5</v>
+      </c>
+      <c r="H44">
+        <v>14451.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4057.4</v>
+      </c>
+      <c r="K44">
+        <v>430.4</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2103.8000000000002</v>
+      </c>
+      <c r="O44">
+        <v>8003.7</v>
+      </c>
+      <c r="P44">
+        <v>4500.8</v>
+      </c>
+      <c r="Q44">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>6447.8</v>
+      </c>
+      <c r="U44">
+        <v>430.1</v>
+      </c>
+      <c r="V44">
+        <v>502</v>
+      </c>
+      <c r="W44">
+        <v>-122.9</v>
+      </c>
+      <c r="X44">
+        <v>23.5</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-21.8</v>
+      </c>
+      <c r="AA44">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>324.8</v>
+      </c>
+      <c r="D45">
+        <v>2506.1999999999998</v>
+      </c>
+      <c r="E45">
+        <v>1555.4</v>
+      </c>
+      <c r="F45">
+        <v>651.4</v>
+      </c>
+      <c r="G45">
+        <v>3189.8</v>
+      </c>
+      <c r="H45">
+        <v>14290.7</v>
+      </c>
+      <c r="I45">
+        <v>793.6</v>
+      </c>
+      <c r="J45">
+        <v>3924.4</v>
+      </c>
+      <c r="K45">
+        <v>561.79999999999995</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2342</v>
+      </c>
+      <c r="O45">
+        <v>8352</v>
+      </c>
+      <c r="P45">
+        <v>4567.5</v>
+      </c>
+      <c r="Q45">
+        <v>-7.6</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>18500</v>
+      </c>
+      <c r="T45">
+        <v>5938.7</v>
+      </c>
+      <c r="U45">
+        <v>421.4</v>
+      </c>
+      <c r="V45">
+        <v>624.5</v>
+      </c>
+      <c r="W45">
+        <v>-123.7</v>
+      </c>
+      <c r="X45">
+        <v>-252.1</v>
+      </c>
+      <c r="Y45">
+        <v>5.3</v>
+      </c>
+      <c r="Z45">
+        <v>0.2</v>
+      </c>
+      <c r="AA45">
+        <v>324.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>248.1</v>
+      </c>
+      <c r="D46">
+        <v>2321.5</v>
+      </c>
+      <c r="E46">
+        <v>1685.4</v>
+      </c>
+      <c r="F46">
+        <v>599.20000000000005</v>
+      </c>
+      <c r="G46">
+        <v>3176.2</v>
+      </c>
+      <c r="H46">
+        <v>14391.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3886</v>
+      </c>
+      <c r="K46">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="L46">
+        <v>-316.39999999999998</v>
+      </c>
+      <c r="M46">
+        <v>-3.3</v>
+      </c>
+      <c r="N46">
+        <v>2337.1999999999998</v>
+      </c>
+      <c r="O46">
+        <v>8334.2000000000007</v>
+      </c>
+      <c r="P46">
+        <v>4618.7</v>
+      </c>
+      <c r="Q46">
+        <v>-15.2</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>6057.1</v>
+      </c>
+      <c r="U46">
+        <v>407.3</v>
+      </c>
+      <c r="V46">
+        <v>430.7</v>
+      </c>
+      <c r="W46">
+        <v>-121.9</v>
+      </c>
+      <c r="X46">
+        <v>-88.3</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-21.2</v>
+      </c>
+      <c r="AA46">
+        <v>248.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>296</v>
+      </c>
+      <c r="D47">
+        <v>2344.3000000000002</v>
+      </c>
+      <c r="E47">
+        <v>1531.6</v>
+      </c>
+      <c r="F47">
+        <v>628.5</v>
+      </c>
+      <c r="G47">
+        <v>3342.9</v>
+      </c>
+      <c r="H47">
+        <v>14955.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3882.7</v>
+      </c>
+      <c r="K47">
+        <v>353</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2539.4</v>
+      </c>
+      <c r="O47">
+        <v>8548.4</v>
+      </c>
+      <c r="P47">
+        <v>4743.7</v>
+      </c>
+      <c r="Q47">
+        <v>-74.3</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6407.4</v>
+      </c>
+      <c r="U47">
+        <v>319.5</v>
+      </c>
+      <c r="V47">
+        <v>320.5</v>
+      </c>
+      <c r="W47">
+        <v>-122.2</v>
+      </c>
+      <c r="X47">
+        <v>15.2</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>484.5</v>
+      </c>
+      <c r="D48">
+        <v>2340.1</v>
+      </c>
+      <c r="E48">
+        <v>1581.2</v>
+      </c>
+      <c r="F48">
+        <v>649.29999999999995</v>
+      </c>
+      <c r="G48">
+        <v>3033.1</v>
+      </c>
+      <c r="H48">
+        <v>14880.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3797.8</v>
+      </c>
+      <c r="K48">
+        <v>370.7</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2135.4</v>
+      </c>
+      <c r="O48">
+        <v>8233.5</v>
+      </c>
+      <c r="P48">
+        <v>4231</v>
+      </c>
+      <c r="Q48">
+        <v>28.2</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>6647.4</v>
+      </c>
+      <c r="U48">
+        <v>361.2</v>
+      </c>
+      <c r="V48">
+        <v>525.5</v>
+      </c>
+      <c r="W48">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-564.5</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-154.19999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>484.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="D49">
+        <v>2605.8000000000002</v>
+      </c>
+      <c r="E49">
+        <v>1797.5</v>
+      </c>
+      <c r="F49">
+        <v>682.8</v>
+      </c>
+      <c r="G49">
+        <v>3415.8</v>
+      </c>
+      <c r="H49">
+        <v>16941.8</v>
+      </c>
+      <c r="I49">
+        <v>1004.9</v>
+      </c>
+      <c r="J49">
+        <v>4593.7</v>
+      </c>
+      <c r="K49">
+        <v>633.4</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2689.9</v>
+      </c>
+      <c r="O49">
+        <v>9926</v>
+      </c>
+      <c r="P49">
+        <v>5317</v>
+      </c>
+      <c r="Q49">
+        <v>93.2</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>20900</v>
+      </c>
+      <c r="T49">
+        <v>7015.8</v>
+      </c>
+      <c r="U49">
+        <v>454.4</v>
+      </c>
+      <c r="V49">
+        <v>522</v>
+      </c>
+      <c r="W49">
+        <v>-135.5</v>
+      </c>
+      <c r="X49">
+        <v>559.20000000000005</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>278.3</v>
+      </c>
+      <c r="D50">
+        <v>2562.4</v>
+      </c>
+      <c r="E50">
+        <v>1722.3</v>
+      </c>
+      <c r="F50">
+        <v>662.3</v>
+      </c>
+      <c r="G50">
+        <v>3563.1</v>
+      </c>
+      <c r="H50">
+        <v>17393.099999999999</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>5114.3999999999996</v>
+      </c>
+      <c r="K50">
+        <v>835.9</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-65</v>
+      </c>
+      <c r="N50">
+        <v>2966.9</v>
+      </c>
+      <c r="O50">
+        <v>10551.2</v>
+      </c>
+      <c r="P50">
+        <v>6055.5</v>
+      </c>
+      <c r="Q50">
+        <v>91.2</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>6841.9</v>
+      </c>
+      <c r="U50">
+        <v>545.6</v>
+      </c>
+      <c r="V50">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="W50">
+        <v>-136</v>
+      </c>
+      <c r="X50">
+        <v>157.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>278.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="D51">
+        <v>2484.1999999999998</v>
+      </c>
+      <c r="E51">
+        <v>1748.7</v>
+      </c>
+      <c r="F51">
+        <v>670.6</v>
+      </c>
+      <c r="G51">
+        <v>3379.2</v>
+      </c>
+      <c r="H51">
+        <v>17221.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4653.8</v>
+      </c>
+      <c r="K51">
+        <v>1239.8</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3221.6</v>
+      </c>
+      <c r="O51">
+        <v>10305.1</v>
+      </c>
+      <c r="P51">
+        <v>5991.6</v>
+      </c>
+      <c r="Q51">
+        <v>-144</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6916.1</v>
+      </c>
+      <c r="U51">
+        <v>401.6</v>
+      </c>
+      <c r="V51">
+        <v>324.39999999999998</v>
+      </c>
+      <c r="W51">
+        <v>-132.9</v>
+      </c>
+      <c r="X51">
+        <v>-114.4</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>290.39999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="D52">
+        <v>2547.3000000000002</v>
+      </c>
+      <c r="E52">
+        <v>1782.2</v>
+      </c>
+      <c r="F52">
+        <v>671.8</v>
+      </c>
+      <c r="G52">
+        <v>3480.7</v>
+      </c>
+      <c r="H52">
+        <v>17491.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4651.6000000000004</v>
+      </c>
+      <c r="K52">
+        <v>1406</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3357.7</v>
+      </c>
+      <c r="O52">
+        <v>10428.1</v>
+      </c>
+      <c r="P52">
+        <v>6135</v>
+      </c>
+      <c r="Q52">
+        <v>17.2</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7063.2</v>
+      </c>
+      <c r="U52">
+        <v>418.8</v>
+      </c>
+      <c r="V52">
+        <v>456.5</v>
+      </c>
+      <c r="W52">
+        <v>-147.9</v>
+      </c>
+      <c r="X52">
+        <v>82.4</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>288.39999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>137.1</v>
+      </c>
+      <c r="D53">
+        <v>2586.5</v>
+      </c>
+      <c r="E53">
+        <v>1793.8</v>
+      </c>
+      <c r="F53">
+        <v>703.6</v>
+      </c>
+      <c r="G53">
+        <v>3439.1</v>
+      </c>
+      <c r="H53">
+        <v>17850.099999999999</v>
+      </c>
+      <c r="I53">
+        <v>1025.5</v>
+      </c>
+      <c r="J53">
+        <v>5062.3999999999996</v>
+      </c>
+      <c r="K53">
+        <v>709.9</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3227.6</v>
+      </c>
+      <c r="O53">
+        <v>10275.4</v>
+      </c>
+      <c r="P53">
+        <v>6283.2</v>
+      </c>
+      <c r="Q53">
+        <v>31.6</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>21300</v>
+      </c>
+      <c r="T53">
+        <v>7574.7</v>
+      </c>
+      <c r="U53">
+        <v>450.4</v>
+      </c>
+      <c r="V53">
+        <v>502.9</v>
+      </c>
+      <c r="W53">
+        <v>-148.80000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1.3</v>
+      </c>
+      <c r="AA53">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>290.2</v>
+      </c>
+      <c r="D54">
+        <v>2545.5</v>
+      </c>
+      <c r="E54">
+        <v>1713.2</v>
+      </c>
+      <c r="F54">
+        <v>679.6</v>
+      </c>
+      <c r="G54">
+        <v>3330.1</v>
+      </c>
+      <c r="H54">
+        <v>17915.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5026.2</v>
+      </c>
+      <c r="K54">
+        <v>1030.5</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-434</v>
+      </c>
+      <c r="N54">
+        <v>3145.2</v>
+      </c>
+      <c r="O54">
+        <v>10133.799999999999</v>
+      </c>
+      <c r="P54">
+        <v>6178</v>
+      </c>
+      <c r="Q54">
+        <v>-62.8</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>7781.4</v>
+      </c>
+      <c r="U54">
+        <v>387.6</v>
+      </c>
+      <c r="V54">
+        <v>546.9</v>
+      </c>
+      <c r="W54">
+        <v>-149.9</v>
+      </c>
+      <c r="X54">
+        <v>-238.2</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>290.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>283.5</v>
+      </c>
+      <c r="D55">
+        <v>2581.9</v>
+      </c>
+      <c r="E55">
+        <v>1748.4</v>
+      </c>
+      <c r="F55">
+        <v>664.3</v>
+      </c>
+      <c r="G55">
+        <v>3299.9</v>
+      </c>
+      <c r="H55">
+        <v>17963</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="K55">
+        <v>1061.5</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3110.3</v>
+      </c>
+      <c r="O55">
+        <v>10091.6</v>
+      </c>
+      <c r="P55">
+        <v>6174.9</v>
+      </c>
+      <c r="Q55">
+        <v>-30.7</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7871.4</v>
+      </c>
+      <c r="U55">
+        <v>356.9</v>
+      </c>
+      <c r="V55">
+        <v>478.5</v>
+      </c>
+      <c r="W55">
+        <v>-150.30000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-99.5</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>283.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>314</v>
+      </c>
+      <c r="D56">
+        <v>2634.6</v>
+      </c>
+      <c r="E56">
+        <v>1770.2</v>
+      </c>
+      <c r="F56">
+        <v>715.9</v>
+      </c>
+      <c r="G56">
+        <v>3339.8</v>
+      </c>
+      <c r="H56">
+        <v>18316.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4956.6000000000004</v>
+      </c>
+      <c r="K56">
+        <v>1115.2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3156.1</v>
+      </c>
+      <c r="O56">
+        <v>10118.6</v>
+      </c>
+      <c r="P56">
+        <v>6161.2</v>
+      </c>
+      <c r="Q56">
+        <v>-19.3</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>8197.6</v>
+      </c>
+      <c r="U56">
+        <v>337.6</v>
+      </c>
+      <c r="V56">
+        <v>559.29999999999995</v>
+      </c>
+      <c r="W56">
+        <v>-163.5</v>
+      </c>
+      <c r="X56">
+        <v>-145</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA56">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>104</v>
+      </c>
+      <c r="D57">
+        <v>2677</v>
+      </c>
+      <c r="E57">
+        <v>1709.2</v>
+      </c>
+      <c r="F57">
+        <v>744.6</v>
+      </c>
+      <c r="G57">
+        <v>3294.8</v>
+      </c>
+      <c r="H57">
+        <v>17779.099999999999</v>
+      </c>
+      <c r="I57">
+        <v>740.6</v>
+      </c>
+      <c r="J57">
+        <v>4824.8</v>
+      </c>
+      <c r="K57">
+        <v>1228.7</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2963</v>
+      </c>
+      <c r="O57">
+        <v>9970.5</v>
+      </c>
+      <c r="P57">
+        <v>6137.6</v>
+      </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>20900</v>
+      </c>
+      <c r="T57">
+        <v>7808.6</v>
+      </c>
+      <c r="U57">
+        <v>336.6</v>
+      </c>
+      <c r="V57">
+        <v>602.4</v>
+      </c>
+      <c r="W57">
+        <v>-164</v>
+      </c>
+      <c r="X57">
+        <v>-178.7</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-0.3</v>
+      </c>
+      <c r="AA57">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="D58">
+        <v>2560.8000000000002</v>
+      </c>
+      <c r="E58">
+        <v>1573.4</v>
+      </c>
+      <c r="F58">
+        <v>729.8</v>
+      </c>
+      <c r="G58">
+        <v>3137.2</v>
+      </c>
+      <c r="H58">
+        <v>17635.400000000001</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4751.3</v>
+      </c>
+      <c r="K58">
+        <v>1283.5</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-38.5</v>
+      </c>
+      <c r="N58">
+        <v>3001.9</v>
+      </c>
+      <c r="O58">
+        <v>9843.4</v>
+      </c>
+      <c r="P58">
+        <v>6120.2</v>
+      </c>
+      <c r="Q58">
+        <v>-97.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>7792</v>
+      </c>
+      <c r="U58">
+        <v>238.8</v>
+      </c>
+      <c r="V58">
+        <v>486.6</v>
+      </c>
+      <c r="W58">
+        <v>-164.4</v>
+      </c>
+      <c r="X58">
+        <v>-111.9</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>324.60000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2414.5</v>
+      </c>
+      <c r="E59">
+        <v>1540.7</v>
+      </c>
+      <c r="F59">
+        <v>716.3</v>
+      </c>
+      <c r="G59">
+        <v>3114.5</v>
+      </c>
+      <c r="H59">
+        <v>17493.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4511.5</v>
+      </c>
+      <c r="K59">
+        <v>1261</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3081.3</v>
+      </c>
+      <c r="O59">
+        <v>9737.5</v>
+      </c>
+      <c r="P59">
+        <v>5930.3</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7756.3</v>
+      </c>
+      <c r="U59">
+        <v>195.7</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>318.8</v>
+      </c>
+      <c r="D60">
+        <v>2470.1999999999998</v>
+      </c>
+      <c r="E60">
+        <v>1589.8</v>
+      </c>
+      <c r="F60">
+        <v>755</v>
+      </c>
+      <c r="G60">
+        <v>3102.3</v>
+      </c>
+      <c r="H60">
+        <v>17671.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>4691.3</v>
+      </c>
+      <c r="K60">
+        <v>1087.8</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2918.9</v>
+      </c>
+      <c r="O60">
+        <v>9662.2999999999993</v>
+      </c>
+      <c r="P60">
+        <v>5864</v>
+      </c>
+      <c r="Q60">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8009.2</v>
+      </c>
+      <c r="U60">
+        <v>215.3</v>
+      </c>
+      <c r="V60">
+        <v>690.7</v>
+      </c>
+      <c r="W60">
+        <v>-174</v>
+      </c>
+      <c r="X60">
+        <v>-272.10000000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>318.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>344.5</v>
+      </c>
+      <c r="D61">
+        <v>2449.4</v>
+      </c>
+      <c r="E61">
+        <v>1601.2</v>
+      </c>
+      <c r="F61">
+        <v>753.5</v>
+      </c>
+      <c r="G61">
+        <v>2793.5</v>
+      </c>
+      <c r="H61">
+        <v>17334.5</v>
+      </c>
+      <c r="I61">
+        <v>621.9</v>
+      </c>
+      <c r="J61">
+        <v>3949.9</v>
+      </c>
+      <c r="K61">
+        <v>1494.3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3644.4</v>
+      </c>
+      <c r="O61">
+        <v>9953.4</v>
+      </c>
+      <c r="P61">
+        <v>5879.8</v>
+      </c>
+      <c r="Q61">
+        <v>-8.9</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>19400</v>
+      </c>
+      <c r="T61">
+        <v>7381.1</v>
+      </c>
+      <c r="U61">
+        <v>206.4</v>
+      </c>
+      <c r="V61">
+        <v>779.9</v>
+      </c>
+      <c r="W61">
+        <v>-174.1</v>
+      </c>
+      <c r="X61">
+        <v>-416.7</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-4.3</v>
+      </c>
+      <c r="AA61">
+        <v>344.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>363.6</v>
+      </c>
+      <c r="D62">
+        <v>1866.3</v>
+      </c>
+      <c r="E62">
+        <v>1417.6</v>
+      </c>
+      <c r="F62">
+        <v>570.4</v>
+      </c>
+      <c r="G62">
+        <v>2779</v>
+      </c>
+      <c r="H62">
+        <v>17260.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>3870.5</v>
+      </c>
+      <c r="K62">
+        <v>1539.4</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-65.5</v>
+      </c>
+      <c r="N62">
+        <v>3572.4</v>
+      </c>
+      <c r="O62">
+        <v>9761.2999999999993</v>
+      </c>
+      <c r="P62">
+        <v>5817.8</v>
+      </c>
+      <c r="Q62">
+        <v>72.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>7499</v>
+      </c>
+      <c r="U62">
+        <v>279.10000000000002</v>
+      </c>
+      <c r="V62">
+        <v>574.1</v>
+      </c>
+      <c r="W62">
+        <v>-174.4</v>
+      </c>
+      <c r="X62">
+        <v>-198.1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1.3</v>
+      </c>
+      <c r="AA62">
+        <v>363.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-473.3</v>
+      </c>
+      <c r="D63">
+        <v>1777.4</v>
+      </c>
+      <c r="E63">
+        <v>1517.9</v>
+      </c>
+      <c r="F63">
+        <v>564.4</v>
+      </c>
+      <c r="G63">
+        <v>3031.2</v>
+      </c>
+      <c r="H63">
+        <v>16810.8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3575.5</v>
+      </c>
+      <c r="K63">
+        <v>1480.9</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3839.1</v>
+      </c>
+      <c r="O63">
+        <v>9757.7000000000007</v>
+      </c>
+      <c r="P63">
+        <v>5820.3</v>
+      </c>
+      <c r="Q63">
+        <v>34</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7053.1</v>
+      </c>
+      <c r="U63">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="V63">
+        <v>498</v>
+      </c>
+      <c r="W63">
+        <v>-174.7</v>
+      </c>
+      <c r="X63">
+        <v>-210.5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-2.8</v>
+      </c>
+      <c r="AA63">
+        <v>-473.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>346.8</v>
+      </c>
+      <c r="D64">
+        <v>1914.5</v>
+      </c>
+      <c r="E64">
+        <v>1674.1</v>
+      </c>
+      <c r="F64">
+        <v>594.29999999999995</v>
+      </c>
+      <c r="G64">
+        <v>3378.8</v>
+      </c>
+      <c r="H64">
+        <v>17083.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3930.3</v>
+      </c>
+      <c r="K64">
+        <v>1043</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3658.9</v>
+      </c>
+      <c r="O64">
+        <v>9903.2999999999993</v>
+      </c>
+      <c r="P64">
+        <v>5688.4</v>
+      </c>
+      <c r="Q64">
+        <v>201.7</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7180.2</v>
+      </c>
+      <c r="U64">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="V64">
+        <v>719.3</v>
+      </c>
+      <c r="W64">
+        <v>-185.8</v>
+      </c>
+      <c r="X64">
+        <v>-258.7</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1.5</v>
+      </c>
+      <c r="AA64">
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>394</v>
+      </c>
+      <c r="D65">
+        <v>1945.5</v>
+      </c>
+      <c r="E65">
+        <v>1299</v>
+      </c>
+      <c r="F65">
+        <v>598</v>
+      </c>
+      <c r="G65">
+        <v>4317.3</v>
+      </c>
+      <c r="H65">
+        <v>18028.599999999999</v>
+      </c>
+      <c r="I65">
+        <v>578.79999999999995</v>
+      </c>
+      <c r="J65">
+        <v>3922.4</v>
+      </c>
+      <c r="K65">
+        <v>935.8</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3283.1</v>
+      </c>
+      <c r="O65">
+        <v>10815.2</v>
+      </c>
+      <c r="P65">
+        <v>5223.6000000000004</v>
+      </c>
+      <c r="Q65">
+        <v>986.5</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>18300</v>
+      </c>
+      <c r="T65">
+        <v>7213.4</v>
+      </c>
+      <c r="U65">
+        <v>1293.2</v>
+      </c>
+      <c r="V65">
+        <v>869.3</v>
+      </c>
+      <c r="W65">
+        <v>-186.3</v>
+      </c>
+      <c r="X65">
+        <v>363</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>299.8</v>
+      </c>
+      <c r="D66">
+        <v>1882.5</v>
+      </c>
+      <c r="E66">
+        <v>1147.9000000000001</v>
+      </c>
+      <c r="F66">
+        <v>565.79999999999995</v>
+      </c>
+      <c r="G66">
+        <v>3548.8</v>
+      </c>
+      <c r="H66">
+        <v>15956.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3304.1</v>
+      </c>
+      <c r="K66">
+        <v>156.1</v>
+      </c>
+      <c r="L66">
+        <v>-772.2</v>
+      </c>
+      <c r="M66">
+        <v>-14.4</v>
+      </c>
+      <c r="N66">
+        <v>2929.8</v>
+      </c>
+      <c r="O66">
+        <v>8695.1</v>
+      </c>
+      <c r="P66">
+        <v>4333.5</v>
+      </c>
+      <c r="Q66">
+        <v>-664</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>7261.1</v>
+      </c>
+      <c r="U66">
+        <v>655.5</v>
+      </c>
+      <c r="V66">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="W66">
+        <v>-186.9</v>
+      </c>
+      <c r="X66">
+        <v>-905</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AA66">
+        <v>299.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>2130</v>
+      </c>
+      <c r="D67">
+        <v>1980.1</v>
+      </c>
+      <c r="E67">
+        <v>1245.0999999999999</v>
+      </c>
+      <c r="F67">
+        <v>576.29999999999995</v>
+      </c>
+      <c r="G67">
+        <v>5294.1</v>
+      </c>
+      <c r="H67">
+        <v>17871.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3323.7</v>
+      </c>
+      <c r="K67">
+        <v>122.3</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2602.3000000000002</v>
+      </c>
+      <c r="O67">
+        <v>8451.2999999999993</v>
+      </c>
+      <c r="P67">
+        <v>3866.9</v>
+      </c>
+      <c r="Q67">
+        <v>1202.5</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>9420.2000000000007</v>
+      </c>
+      <c r="U67">
+        <v>1869.3</v>
+      </c>
+      <c r="V67">
+        <v>-174.3</v>
+      </c>
+      <c r="W67">
+        <v>-187.1</v>
+      </c>
+      <c r="X67">
+        <v>-687.3</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1423.3</v>
+      </c>
+      <c r="AA67">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>101.9</v>
+      </c>
+      <c r="D68">
+        <v>2121.9</v>
+      </c>
+      <c r="E68">
+        <v>1184.5</v>
+      </c>
+      <c r="F68">
+        <v>635.9</v>
+      </c>
+      <c r="G68">
+        <v>5347</v>
+      </c>
+      <c r="H68">
+        <v>17853.8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>3390</v>
+      </c>
+      <c r="K68">
+        <v>143.4</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2433.1999999999998</v>
+      </c>
+      <c r="O68">
+        <v>8343.9</v>
+      </c>
+      <c r="P68">
+        <v>3949.5</v>
+      </c>
+      <c r="Q68">
+        <v>463.3</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>9509.9</v>
+      </c>
+      <c r="U68">
+        <v>2332.6</v>
+      </c>
+      <c r="V68">
+        <v>505</v>
+      </c>
+      <c r="W68">
+        <v>-206.9</v>
+      </c>
+      <c r="X68">
+        <v>-192.6</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>408.9</v>
+      </c>
+      <c r="AA68">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>468.7</v>
+      </c>
+      <c r="D69">
+        <v>2203.1</v>
+      </c>
+      <c r="E69">
+        <v>1352.1</v>
+      </c>
+      <c r="F69">
+        <v>658.1</v>
+      </c>
+      <c r="G69">
+        <v>5876.7</v>
+      </c>
+      <c r="H69">
+        <v>18467.2</v>
+      </c>
+      <c r="I69">
+        <v>659.5</v>
+      </c>
+      <c r="J69">
+        <v>3424.6</v>
+      </c>
+      <c r="K69">
+        <v>144</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2489</v>
+      </c>
+      <c r="O69">
+        <v>8281.7000000000007</v>
+      </c>
+      <c r="P69">
+        <v>3996.7</v>
+      </c>
+      <c r="Q69">
+        <v>941</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>15000</v>
+      </c>
+      <c r="T69">
+        <v>10185.5</v>
+      </c>
+      <c r="U69">
+        <v>3273.6</v>
+      </c>
+      <c r="V69">
+        <v>722.5</v>
+      </c>
+      <c r="W69">
+        <v>-207</v>
+      </c>
+      <c r="X69">
+        <v>-186.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>613.20000000000005</v>
+      </c>
+      <c r="AA69">
+        <v>468.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>154.6</v>
+      </c>
+      <c r="D70">
+        <v>2216.6</v>
+      </c>
+      <c r="E70">
+        <v>1318.8</v>
+      </c>
+      <c r="F70">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="G70">
+        <v>5355.5</v>
+      </c>
+      <c r="H70">
+        <v>18208.8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>3453.1</v>
+      </c>
+      <c r="K70">
+        <v>87.1</v>
+      </c>
+      <c r="L70">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="M70">
+        <v>-408.6</v>
+      </c>
+      <c r="N70">
+        <v>1831.6</v>
+      </c>
+      <c r="O70">
+        <v>7887.6</v>
+      </c>
+      <c r="P70">
+        <v>3569</v>
+      </c>
+      <c r="Q70">
+        <v>-551</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>10321.200000000001</v>
+      </c>
+      <c r="U70">
+        <v>2722.6</v>
+      </c>
+      <c r="V70">
+        <v>556.9</v>
+      </c>
+      <c r="W70">
+        <v>-207.5</v>
+      </c>
+      <c r="X70">
+        <v>-641.1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-3.3</v>
+      </c>
+      <c r="AA70">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>416.4</v>
+      </c>
+      <c r="D71">
+        <v>2155.6999999999998</v>
+      </c>
+      <c r="E71">
+        <v>1350.8</v>
+      </c>
+      <c r="F71">
+        <v>649.20000000000005</v>
+      </c>
+      <c r="G71">
+        <v>5396.3</v>
+      </c>
+      <c r="H71">
+        <v>18511.099999999999</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>3500.5</v>
+      </c>
+      <c r="K71">
+        <v>112.5</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1752.3</v>
+      </c>
+      <c r="O71">
+        <v>7817.9</v>
+      </c>
+      <c r="P71">
+        <v>3644.4</v>
+      </c>
+      <c r="Q71">
+        <v>344.3</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>10693.2</v>
+      </c>
+      <c r="U71">
+        <v>3066.9</v>
+      </c>
+      <c r="V71">
+        <v>546</v>
+      </c>
+      <c r="W71">
+        <v>-208</v>
+      </c>
+      <c r="X71">
+        <v>-174.5</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>270.5</v>
+      </c>
+      <c r="AA71">
+        <v>416.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>473.9</v>
+      </c>
+      <c r="D72">
+        <v>2259</v>
+      </c>
+      <c r="E72">
+        <v>1321.5</v>
+      </c>
+      <c r="F72">
+        <v>713.6</v>
+      </c>
+      <c r="G72">
+        <v>5055.5</v>
+      </c>
+      <c r="H72">
+        <v>19206</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>3796.4</v>
+      </c>
+      <c r="K72">
+        <v>90.4</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2109.8000000000002</v>
+      </c>
+      <c r="O72">
+        <v>8396</v>
+      </c>
+      <c r="P72">
+        <v>3897.4</v>
+      </c>
+      <c r="Q72">
+        <v>-80.400000000000006</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10810</v>
+      </c>
+      <c r="U72">
+        <v>2986.5</v>
+      </c>
+      <c r="V72">
+        <v>740.5</v>
+      </c>
+      <c r="W72">
+        <v>-241.1</v>
+      </c>
+      <c r="X72">
+        <v>-282.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>473.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>452.9</v>
+      </c>
+      <c r="D73">
+        <v>2298.9</v>
+      </c>
+      <c r="E73">
+        <v>1376.8</v>
+      </c>
+      <c r="F73">
+        <v>733.1</v>
+      </c>
+      <c r="G73">
+        <v>5082.2</v>
+      </c>
+      <c r="H73">
+        <v>19178.3</v>
+      </c>
+      <c r="I73">
+        <v>594.6</v>
+      </c>
+      <c r="J73">
+        <v>3352.8</v>
+      </c>
+      <c r="K73">
+        <v>54.3</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2338.3000000000002</v>
+      </c>
+      <c r="O73">
+        <v>8002</v>
+      </c>
+      <c r="P73">
+        <v>3826.5</v>
+      </c>
+      <c r="Q73">
+        <v>-195.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>16000</v>
+      </c>
+      <c r="T73">
+        <v>11176.3</v>
+      </c>
+      <c r="U73">
+        <v>2791.3</v>
+      </c>
+      <c r="V73">
+        <v>691</v>
+      </c>
+      <c r="W73">
+        <v>-241.2</v>
+      </c>
+      <c r="X73">
+        <v>-262</v>
+      </c>
+      <c r="Y73">
+        <v>10.5</v>
+      </c>
+      <c r="Z73">
+        <v>-177.5</v>
+      </c>
+      <c r="AA73">
+        <v>452.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>347.5</v>
+      </c>
+      <c r="D74">
+        <v>2224</v>
+      </c>
+      <c r="E74">
+        <v>1319.7</v>
+      </c>
+      <c r="F74">
+        <v>680</v>
+      </c>
+      <c r="G74">
+        <v>5089.8999999999996</v>
+      </c>
+      <c r="H74">
+        <v>19142</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3323.7</v>
+      </c>
+      <c r="K74">
+        <v>23</v>
+      </c>
+      <c r="L74">
+        <v>-38</v>
+      </c>
+      <c r="M74">
+        <v>-2.6</v>
+      </c>
+      <c r="N74">
+        <v>2303.5</v>
+      </c>
+      <c r="O74">
+        <v>7938.6</v>
+      </c>
+      <c r="P74">
+        <v>3778.3</v>
+      </c>
+      <c r="Q74">
+        <v>132</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>11203.4</v>
+      </c>
+      <c r="U74">
+        <v>2923.3</v>
+      </c>
+      <c r="V74">
+        <v>655.20000000000005</v>
+      </c>
+      <c r="W74">
+        <v>-241.5</v>
+      </c>
+      <c r="X74">
+        <v>-289.8</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>172.7</v>
+      </c>
+      <c r="AA74">
+        <v>347.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>421.3</v>
+      </c>
+      <c r="D75">
+        <v>2187.6999999999998</v>
+      </c>
+      <c r="E75">
+        <v>1293.0999999999999</v>
+      </c>
+      <c r="F75">
+        <v>713</v>
+      </c>
+      <c r="G75">
+        <v>4895.2</v>
+      </c>
+      <c r="H75">
+        <v>19244.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>3317</v>
+      </c>
+      <c r="K75">
+        <v>54.1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2073</v>
+      </c>
+      <c r="O75">
+        <v>7741.1</v>
+      </c>
+      <c r="P75">
+        <v>3806.5</v>
+      </c>
+      <c r="Q75">
+        <v>-187.4</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>11503.4</v>
+      </c>
+      <c r="U75">
+        <v>2735.9</v>
+      </c>
+      <c r="V75">
+        <v>630.6</v>
+      </c>
+      <c r="W75">
+        <v>-241.6</v>
+      </c>
+      <c r="X75">
+        <v>-170</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>8.5</v>
+      </c>
+      <c r="AA75">
+        <v>421.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>488</v>
+      </c>
+      <c r="D76">
+        <v>2224</v>
+      </c>
+      <c r="E76">
+        <v>1383.7</v>
+      </c>
+      <c r="F76">
+        <v>758</v>
+      </c>
+      <c r="G76">
+        <v>4915.2</v>
+      </c>
+      <c r="H76">
+        <v>19531.900000000001</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3280.6</v>
+      </c>
+      <c r="K76">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2155.1999999999998</v>
+      </c>
+      <c r="O76">
+        <v>7805.3</v>
+      </c>
+      <c r="P76">
+        <v>3827.6</v>
+      </c>
+      <c r="Q76">
+        <v>-39.1</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>11726.6</v>
+      </c>
+      <c r="U76">
+        <v>2696.8</v>
+      </c>
+      <c r="V76">
+        <v>717.6</v>
+      </c>
+      <c r="W76">
+        <v>-255.3</v>
+      </c>
+      <c r="X76">
+        <v>-201</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-11.7</v>
+      </c>
+      <c r="AA76">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>503.2</v>
+      </c>
+      <c r="D77">
+        <v>2283.1999999999998</v>
+      </c>
+      <c r="E77">
+        <v>1415.4</v>
+      </c>
+      <c r="F77">
+        <v>792.4</v>
+      </c>
+      <c r="G77">
+        <v>4618.3</v>
+      </c>
+      <c r="H77">
+        <v>18942.8</v>
+      </c>
+      <c r="I77">
+        <v>528.20000000000005</v>
+      </c>
+      <c r="J77">
+        <v>3218</v>
+      </c>
+      <c r="K77">
+        <v>58.2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1820.9</v>
+      </c>
+      <c r="O77">
+        <v>7554.5</v>
+      </c>
+      <c r="P77">
+        <v>3327.8</v>
+      </c>
+      <c r="Q77">
+        <v>-448.1</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>17440</v>
+      </c>
+      <c r="T77">
+        <v>11388.3</v>
+      </c>
+      <c r="U77">
+        <v>2248.6999999999998</v>
+      </c>
+      <c r="V77">
+        <v>966.5</v>
+      </c>
+      <c r="W77">
+        <v>-255.6</v>
+      </c>
+      <c r="X77">
+        <v>-709.7</v>
+      </c>
+      <c r="Y77">
+        <v>10.1</v>
+      </c>
+      <c r="Z77">
+        <v>-166.8</v>
+      </c>
+      <c r="AA77">
+        <v>503.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>475.6</v>
+      </c>
+      <c r="D78">
+        <v>2254.6999999999998</v>
+      </c>
+      <c r="E78">
+        <v>1383</v>
+      </c>
+      <c r="F78">
+        <v>768.1</v>
+      </c>
+      <c r="G78">
+        <v>4719.7</v>
+      </c>
+      <c r="H78">
+        <v>19651.599999999999</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3265.6</v>
+      </c>
+      <c r="K78">
+        <v>36.5</v>
+      </c>
+      <c r="L78">
+        <v>-10.4</v>
+      </c>
+      <c r="M78">
+        <v>-2.8</v>
+      </c>
+      <c r="N78">
+        <v>1819</v>
+      </c>
+      <c r="O78">
+        <v>7721.8</v>
+      </c>
+      <c r="P78">
+        <v>3706.1</v>
+      </c>
+      <c r="Q78">
+        <v>157.4</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>11929.8</v>
+      </c>
+      <c r="U78">
+        <v>2406.1</v>
+      </c>
+      <c r="V78">
+        <v>667</v>
+      </c>
+      <c r="W78">
+        <v>-255.7</v>
+      </c>
+      <c r="X78">
+        <v>-270.3</v>
+      </c>
+      <c r="Y78">
+        <v>296.8</v>
+      </c>
+      <c r="Z78">
+        <v>169.9</v>
+      </c>
+      <c r="AA78">
+        <v>475.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>2216.3000000000002</v>
+      </c>
+      <c r="E79">
+        <v>1573.4</v>
+      </c>
+      <c r="F79">
+        <v>756.2</v>
+      </c>
+      <c r="G79">
+        <v>4688.5</v>
+      </c>
+      <c r="H79">
+        <v>19501.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3245.2</v>
+      </c>
+      <c r="K79">
+        <v>29</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1806.9</v>
+      </c>
+      <c r="O79">
+        <v>7777.5</v>
+      </c>
+      <c r="P79">
+        <v>3706.5</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>11723.7</v>
+      </c>
+      <c r="U79">
+        <v>2220.1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>326.2</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>477.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>446.5</v>
+      </c>
+      <c r="D80">
+        <v>2065.1999999999998</v>
+      </c>
+      <c r="E80">
+        <v>1550.3</v>
+      </c>
+      <c r="F80">
+        <v>720.3</v>
+      </c>
+      <c r="G80">
+        <v>9006.5</v>
+      </c>
+      <c r="H80">
+        <v>24782.1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7358.8</v>
+      </c>
+      <c r="K80">
+        <v>14.3</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2591</v>
+      </c>
+      <c r="O80">
+        <v>12758.7</v>
+      </c>
+      <c r="P80">
+        <v>8590.7999999999993</v>
+      </c>
+      <c r="Q80">
+        <v>1701.3</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>12023.4</v>
+      </c>
+      <c r="U80">
+        <v>3921.4</v>
+      </c>
+      <c r="V80">
+        <v>774.7</v>
+      </c>
+      <c r="W80">
+        <v>-295.89999999999998</v>
+      </c>
+      <c r="X80">
+        <v>4543.3</v>
+      </c>
+      <c r="Y80">
+        <v>325.7</v>
+      </c>
+      <c r="Z80">
+        <v>-2517.1999999999998</v>
+      </c>
+      <c r="AA80">
+        <v>446.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>486.8</v>
+      </c>
+      <c r="D81">
+        <v>2320.1</v>
+      </c>
+      <c r="E81">
+        <v>1417.4</v>
+      </c>
+      <c r="F81">
+        <v>753.6</v>
+      </c>
+      <c r="G81">
+        <v>8684.9</v>
+      </c>
+      <c r="H81">
+        <v>25168.5</v>
+      </c>
+      <c r="I81">
+        <v>546.20000000000005</v>
+      </c>
+      <c r="J81">
+        <v>7422.6</v>
+      </c>
+      <c r="K81">
+        <v>7.7</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2416.6999999999998</v>
+      </c>
+      <c r="O81">
+        <v>12725.4</v>
+      </c>
+      <c r="P81">
+        <v>8316.4</v>
+      </c>
+      <c r="Q81">
+        <v>1331.6</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>19000</v>
+      </c>
+      <c r="T81">
+        <v>12443.1</v>
+      </c>
+      <c r="U81">
+        <v>5253</v>
+      </c>
+      <c r="V81">
+        <v>1251.5</v>
+      </c>
+      <c r="W81">
+        <v>-296</v>
+      </c>
+      <c r="X81">
+        <v>-720.8</v>
+      </c>
+      <c r="Y81">
+        <v>345</v>
+      </c>
+      <c r="Z81">
+        <v>1411</v>
+      </c>
+      <c r="AA81">
+        <v>486.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>482</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2375.1999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1572.3</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>742.8</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>8809.7999999999993</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>26088.1</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>7124.4</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>2985.9</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>13016.2</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8046.9</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>535</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>13071.9</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5788</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>774.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-296.2</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-307.10000000000002</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
         <v>676.5</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>482</v>
       </c>
     </row>
